--- a/Final Dataset.xlsx
+++ b/Final Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shivam/Downloads/epgdaba/Term 1/Data Visualization/dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E0E70A-9CFF-1146-9E25-6F8CCAE74796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5DEBDC-D8BA-2F4F-9471-9A7A0E370B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" xr2:uid="{D5310315-C170-4FCF-B9E2-2103E9CC307E}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6524" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6523" uniqueCount="756">
   <si>
     <t>Job Title</t>
   </si>
@@ -2296,9 +2296,6 @@
   </si>
   <si>
     <t>Education</t>
-  </si>
-  <si>
-    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -2674,10 +2671,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC09EAAF-5A29-4A06-B731-47817EC13815}">
-  <dimension ref="A1:X651"/>
+  <dimension ref="A1:W651"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J617" workbookViewId="0">
-      <selection activeCell="Y646" sqref="Y646"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2707,7 +2704,7 @@
     <col min="23" max="23" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2777,11 +2774,8 @@
       <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -2851,11 +2845,8 @@
       <c r="W2" t="s">
         <v>31</v>
       </c>
-      <c r="X2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -2925,11 +2916,8 @@
       <c r="W3" t="s">
         <v>39</v>
       </c>
-      <c r="X3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -2999,11 +2987,8 @@
       <c r="W4" t="s">
         <v>42</v>
       </c>
-      <c r="X4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3073,11 +3058,8 @@
       <c r="W5" t="s">
         <v>42</v>
       </c>
-      <c r="X5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>23</v>
       </c>
@@ -3147,11 +3129,8 @@
       <c r="W6" t="s">
         <v>42</v>
       </c>
-      <c r="X6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3221,11 +3200,8 @@
       <c r="W7" t="s">
         <v>42</v>
       </c>
-      <c r="X7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -3295,11 +3271,8 @@
       <c r="W8" t="s">
         <v>42</v>
       </c>
-      <c r="X8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -3369,11 +3342,8 @@
       <c r="W9" t="s">
         <v>56</v>
       </c>
-      <c r="X9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -3443,11 +3413,8 @@
       <c r="W10" t="s">
         <v>56</v>
       </c>
-      <c r="X10">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -3517,11 +3484,8 @@
       <c r="W11" t="s">
         <v>42</v>
       </c>
-      <c r="X11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3566,7 +3530,7 @@
       </c>
       <c r="O12">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="P12">
         <v>1</v>
@@ -3592,11 +3556,8 @@
       <c r="W12" t="s">
         <v>39</v>
       </c>
-      <c r="X12">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -3666,11 +3627,8 @@
       <c r="W13" t="s">
         <v>42</v>
       </c>
-      <c r="X13">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -3740,11 +3698,8 @@
       <c r="W14" t="s">
         <v>42</v>
       </c>
-      <c r="X14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -3814,11 +3769,8 @@
       <c r="W15" t="s">
         <v>42</v>
       </c>
-      <c r="X15">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -3888,11 +3840,8 @@
       <c r="W16" t="s">
         <v>42</v>
       </c>
-      <c r="X16">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -3962,11 +3911,8 @@
       <c r="W17" t="s">
         <v>42</v>
       </c>
-      <c r="X17">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>23</v>
       </c>
@@ -4036,11 +3982,8 @@
       <c r="W18" t="s">
         <v>56</v>
       </c>
-      <c r="X18">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -4110,11 +4053,8 @@
       <c r="W19" t="s">
         <v>42</v>
       </c>
-      <c r="X19">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>86</v>
       </c>
@@ -4184,11 +4124,8 @@
       <c r="W20" t="s">
         <v>91</v>
       </c>
-      <c r="X20">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -4258,11 +4195,8 @@
       <c r="W21" t="s">
         <v>42</v>
       </c>
-      <c r="X21">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -4332,11 +4266,8 @@
       <c r="W22" t="s">
         <v>31</v>
       </c>
-      <c r="X22">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4406,11 +4337,8 @@
       <c r="W23" t="s">
         <v>31</v>
       </c>
-      <c r="X23">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -4480,11 +4408,8 @@
       <c r="W24" t="s">
         <v>42</v>
       </c>
-      <c r="X24">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -4554,11 +4479,8 @@
       <c r="W25" t="s">
         <v>42</v>
       </c>
-      <c r="X25">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -4628,11 +4550,8 @@
       <c r="W26" t="s">
         <v>42</v>
       </c>
-      <c r="X26">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>32</v>
       </c>
@@ -4702,11 +4621,8 @@
       <c r="W27" t="s">
         <v>56</v>
       </c>
-      <c r="X27">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>103</v>
       </c>
@@ -4776,11 +4692,8 @@
       <c r="W28" t="s">
         <v>31</v>
       </c>
-      <c r="X28">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4850,11 +4763,8 @@
       <c r="W29" t="s">
         <v>42</v>
       </c>
-      <c r="X29">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -4924,11 +4834,8 @@
       <c r="W30" t="s">
         <v>31</v>
       </c>
-      <c r="X30">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -4998,11 +4905,8 @@
       <c r="W31" t="s">
         <v>91</v>
       </c>
-      <c r="X31">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -5072,11 +4976,8 @@
       <c r="W32" t="s">
         <v>91</v>
       </c>
-      <c r="X32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>114</v>
       </c>
@@ -5146,11 +5047,8 @@
       <c r="W33" t="s">
         <v>120</v>
       </c>
-      <c r="X33">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -5220,11 +5118,8 @@
       <c r="W34" t="s">
         <v>120</v>
       </c>
-      <c r="X34">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>114</v>
       </c>
@@ -5294,11 +5189,8 @@
       <c r="W35" t="s">
         <v>120</v>
       </c>
-      <c r="X35">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -5368,11 +5260,8 @@
       <c r="W36" t="s">
         <v>42</v>
       </c>
-      <c r="X36">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -5442,11 +5331,8 @@
       <c r="W37" t="s">
         <v>42</v>
       </c>
-      <c r="X37">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>103</v>
       </c>
@@ -5516,11 +5402,8 @@
       <c r="W38" t="s">
         <v>31</v>
       </c>
-      <c r="X38">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -5590,11 +5473,8 @@
       <c r="W39" t="s">
         <v>42</v>
       </c>
-      <c r="X39">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -5664,11 +5544,8 @@
       <c r="W40" t="s">
         <v>42</v>
       </c>
-      <c r="X40">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>23</v>
       </c>
@@ -5738,11 +5615,8 @@
       <c r="W41" t="s">
         <v>42</v>
       </c>
-      <c r="X41">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -5812,11 +5686,8 @@
       <c r="W42" t="s">
         <v>42</v>
       </c>
-      <c r="X42">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -5886,11 +5757,8 @@
       <c r="W43" t="s">
         <v>42</v>
       </c>
-      <c r="X43">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>23</v>
       </c>
@@ -5960,11 +5828,8 @@
       <c r="W44" t="s">
         <v>42</v>
       </c>
-      <c r="X44">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>32</v>
       </c>
@@ -6034,11 +5899,8 @@
       <c r="W45" t="s">
         <v>142</v>
       </c>
-      <c r="X45">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -6108,11 +5970,8 @@
       <c r="W46" t="s">
         <v>42</v>
       </c>
-      <c r="X46">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>86</v>
       </c>
@@ -6182,11 +6041,8 @@
       <c r="W47" t="s">
         <v>91</v>
       </c>
-      <c r="X47">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>86</v>
       </c>
@@ -6256,11 +6112,8 @@
       <c r="W48" t="s">
         <v>91</v>
       </c>
-      <c r="X48">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>23</v>
       </c>
@@ -6330,11 +6183,8 @@
       <c r="W49" t="s">
         <v>56</v>
       </c>
-      <c r="X49">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -6404,11 +6254,8 @@
       <c r="W50" t="s">
         <v>31</v>
       </c>
-      <c r="X50">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>23</v>
       </c>
@@ -6478,11 +6325,8 @@
       <c r="W51" t="s">
         <v>42</v>
       </c>
-      <c r="X51">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -6552,11 +6396,8 @@
       <c r="W52" t="s">
         <v>42</v>
       </c>
-      <c r="X52">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>23</v>
       </c>
@@ -6626,11 +6467,8 @@
       <c r="W53" t="s">
         <v>42</v>
       </c>
-      <c r="X53">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -6700,11 +6538,8 @@
       <c r="W54" t="s">
         <v>56</v>
       </c>
-      <c r="X54">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>114</v>
       </c>
@@ -6774,11 +6609,8 @@
       <c r="W55" t="s">
         <v>56</v>
       </c>
-      <c r="X55">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -6848,11 +6680,8 @@
       <c r="W56" t="s">
         <v>42</v>
       </c>
-      <c r="X56">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -6922,11 +6751,8 @@
       <c r="W57" t="s">
         <v>42</v>
       </c>
-      <c r="X57">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -6996,11 +6822,8 @@
       <c r="W58" t="s">
         <v>42</v>
       </c>
-      <c r="X58">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -7070,11 +6893,8 @@
       <c r="W59" t="s">
         <v>42</v>
       </c>
-      <c r="X59">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -7144,11 +6964,8 @@
       <c r="W60" t="s">
         <v>42</v>
       </c>
-      <c r="X60">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -7218,11 +7035,8 @@
       <c r="W61" t="s">
         <v>42</v>
       </c>
-      <c r="X61">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -7292,11 +7106,8 @@
       <c r="W62" t="s">
         <v>42</v>
       </c>
-      <c r="X62">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -7366,11 +7177,8 @@
       <c r="W63" t="s">
         <v>42</v>
       </c>
-      <c r="X63">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -7440,11 +7248,8 @@
       <c r="W64" t="s">
         <v>42</v>
       </c>
-      <c r="X64">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -7514,11 +7319,8 @@
       <c r="W65" t="s">
         <v>42</v>
       </c>
-      <c r="X65">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -7588,11 +7390,8 @@
       <c r="W66" t="s">
         <v>42</v>
       </c>
-      <c r="X66">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -7662,11 +7461,8 @@
       <c r="W67" t="s">
         <v>42</v>
       </c>
-      <c r="X67">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -7736,11 +7532,8 @@
       <c r="W68" t="s">
         <v>120</v>
       </c>
-      <c r="X68">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>114</v>
       </c>
@@ -7810,11 +7603,8 @@
       <c r="W69" t="s">
         <v>120</v>
       </c>
-      <c r="X69">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -7884,11 +7674,8 @@
       <c r="W70" t="s">
         <v>42</v>
       </c>
-      <c r="X70">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>32</v>
       </c>
@@ -7958,11 +7745,8 @@
       <c r="W71" t="s">
         <v>39</v>
       </c>
-      <c r="X71">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -8032,11 +7816,8 @@
       <c r="W72" t="s">
         <v>42</v>
       </c>
-      <c r="X72">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -8106,11 +7887,8 @@
       <c r="W73" t="s">
         <v>42</v>
       </c>
-      <c r="X73">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -8180,11 +7958,8 @@
       <c r="W74" t="s">
         <v>42</v>
       </c>
-      <c r="X74">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -8254,11 +8029,8 @@
       <c r="W75" t="s">
         <v>42</v>
       </c>
-      <c r="X75">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -8328,11 +8100,8 @@
       <c r="W76" t="s">
         <v>42</v>
       </c>
-      <c r="X76">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -8402,11 +8171,8 @@
       <c r="W77" t="s">
         <v>42</v>
       </c>
-      <c r="X77">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -8476,11 +8242,8 @@
       <c r="W78" t="s">
         <v>42</v>
       </c>
-      <c r="X78">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -8550,11 +8313,8 @@
       <c r="W79" t="s">
         <v>56</v>
       </c>
-      <c r="X79">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>23</v>
       </c>
@@ -8624,11 +8384,8 @@
       <c r="W80" t="s">
         <v>42</v>
       </c>
-      <c r="X80">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>23</v>
       </c>
@@ -8698,11 +8455,8 @@
       <c r="W81" t="s">
         <v>42</v>
       </c>
-      <c r="X81">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -8772,11 +8526,8 @@
       <c r="W82" t="s">
         <v>31</v>
       </c>
-      <c r="X82">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>23</v>
       </c>
@@ -8846,11 +8597,8 @@
       <c r="W83" t="s">
         <v>42</v>
       </c>
-      <c r="X83">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>23</v>
       </c>
@@ -8920,11 +8668,8 @@
       <c r="W84" t="s">
         <v>42</v>
       </c>
-      <c r="X84">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>23</v>
       </c>
@@ -8994,11 +8739,8 @@
       <c r="W85" t="s">
         <v>42</v>
       </c>
-      <c r="X85">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>23</v>
       </c>
@@ -9068,11 +8810,8 @@
       <c r="W86" t="s">
         <v>42</v>
       </c>
-      <c r="X86">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>114</v>
       </c>
@@ -9142,11 +8881,8 @@
       <c r="W87" t="s">
         <v>120</v>
       </c>
-      <c r="X87">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>23</v>
       </c>
@@ -9216,11 +8952,8 @@
       <c r="W88" t="s">
         <v>56</v>
       </c>
-      <c r="X88">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -9290,11 +9023,8 @@
       <c r="W89" t="s">
         <v>56</v>
       </c>
-      <c r="X89">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -9364,11 +9094,8 @@
       <c r="W90" t="s">
         <v>42</v>
       </c>
-      <c r="X90">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>23</v>
       </c>
@@ -9438,11 +9165,8 @@
       <c r="W91" t="s">
         <v>42</v>
       </c>
-      <c r="X91">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>23</v>
       </c>
@@ -9512,11 +9236,8 @@
       <c r="W92" t="s">
         <v>42</v>
       </c>
-      <c r="X92">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>23</v>
       </c>
@@ -9586,11 +9307,8 @@
       <c r="W93" t="s">
         <v>31</v>
       </c>
-      <c r="X93">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>23</v>
       </c>
@@ -9660,11 +9378,8 @@
       <c r="W94" t="s">
         <v>56</v>
       </c>
-      <c r="X94">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>86</v>
       </c>
@@ -9734,11 +9449,8 @@
       <c r="W95" t="s">
         <v>42</v>
       </c>
-      <c r="X95">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>86</v>
       </c>
@@ -9808,11 +9520,8 @@
       <c r="W96" t="s">
         <v>42</v>
       </c>
-      <c r="X96">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>23</v>
       </c>
@@ -9882,11 +9591,8 @@
       <c r="W97" t="s">
         <v>42</v>
       </c>
-      <c r="X97">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -9956,11 +9662,8 @@
       <c r="W98" t="s">
         <v>42</v>
       </c>
-      <c r="X98">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -10030,11 +9733,8 @@
       <c r="W99" t="s">
         <v>120</v>
       </c>
-      <c r="X99">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -10104,11 +9804,8 @@
       <c r="W100" t="s">
         <v>42</v>
       </c>
-      <c r="X100">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -10178,11 +9875,8 @@
       <c r="W101" t="s">
         <v>42</v>
       </c>
-      <c r="X101">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -10252,11 +9946,8 @@
       <c r="W102" t="s">
         <v>42</v>
       </c>
-      <c r="X102">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>86</v>
       </c>
@@ -10326,11 +10017,8 @@
       <c r="W103" t="s">
         <v>91</v>
       </c>
-      <c r="X103">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -10400,11 +10088,8 @@
       <c r="W104" t="s">
         <v>42</v>
       </c>
-      <c r="X104">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>23</v>
       </c>
@@ -10474,11 +10159,8 @@
       <c r="W105" t="s">
         <v>42</v>
       </c>
-      <c r="X105">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>23</v>
       </c>
@@ -10548,11 +10230,8 @@
       <c r="W106" t="s">
         <v>42</v>
       </c>
-      <c r="X106">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>23</v>
       </c>
@@ -10622,11 +10301,8 @@
       <c r="W107" t="s">
         <v>42</v>
       </c>
-      <c r="X107">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>23</v>
       </c>
@@ -10696,11 +10372,8 @@
       <c r="W108" t="s">
         <v>42</v>
       </c>
-      <c r="X108">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>114</v>
       </c>
@@ -10770,11 +10443,8 @@
       <c r="W109" t="s">
         <v>120</v>
       </c>
-      <c r="X109">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>23</v>
       </c>
@@ -10844,11 +10514,8 @@
       <c r="W110" t="s">
         <v>42</v>
       </c>
-      <c r="X110">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>23</v>
       </c>
@@ -10918,11 +10585,8 @@
       <c r="W111" t="s">
         <v>42</v>
       </c>
-      <c r="X111">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>23</v>
       </c>
@@ -10992,11 +10656,8 @@
       <c r="W112" t="s">
         <v>42</v>
       </c>
-      <c r="X112">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>23</v>
       </c>
@@ -11066,11 +10727,8 @@
       <c r="W113" t="s">
         <v>42</v>
       </c>
-      <c r="X113">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>114</v>
       </c>
@@ -11140,11 +10798,8 @@
       <c r="W114" t="s">
         <v>31</v>
       </c>
-      <c r="X114">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>86</v>
       </c>
@@ -11189,7 +10844,7 @@
       </c>
       <c r="O115">
         <f ca="1">RANDBETWEEN(6,51)</f>
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P115">
         <v>1</v>
@@ -11215,11 +10870,8 @@
       <c r="W115" t="s">
         <v>42</v>
       </c>
-      <c r="X115">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>23</v>
       </c>
@@ -11289,11 +10941,8 @@
       <c r="W116" t="s">
         <v>42</v>
       </c>
-      <c r="X116">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>23</v>
       </c>
@@ -11363,11 +11012,8 @@
       <c r="W117" t="s">
         <v>42</v>
       </c>
-      <c r="X117">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>114</v>
       </c>
@@ -11437,11 +11083,8 @@
       <c r="W118" t="s">
         <v>120</v>
       </c>
-      <c r="X118">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="119" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>114</v>
       </c>
@@ -11511,11 +11154,8 @@
       <c r="W119" t="s">
         <v>120</v>
       </c>
-      <c r="X119">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="120" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>23</v>
       </c>
@@ -11585,11 +11225,8 @@
       <c r="W120" t="s">
         <v>42</v>
       </c>
-      <c r="X120">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="121" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>23</v>
       </c>
@@ -11659,11 +11296,8 @@
       <c r="W121" t="s">
         <v>42</v>
       </c>
-      <c r="X121">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="122" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>32</v>
       </c>
@@ -11733,11 +11367,8 @@
       <c r="W122" t="s">
         <v>39</v>
       </c>
-      <c r="X122">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="123" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>32</v>
       </c>
@@ -11807,11 +11438,8 @@
       <c r="W123" t="s">
         <v>39</v>
       </c>
-      <c r="X123">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="124" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>23</v>
       </c>
@@ -11881,11 +11509,8 @@
       <c r="W124" t="s">
         <v>42</v>
       </c>
-      <c r="X124">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="125" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>23</v>
       </c>
@@ -11955,11 +11580,8 @@
       <c r="W125" t="s">
         <v>42</v>
       </c>
-      <c r="X125">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="126" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>23</v>
       </c>
@@ -12029,11 +11651,8 @@
       <c r="W126" t="s">
         <v>42</v>
       </c>
-      <c r="X126">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="127" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>103</v>
       </c>
@@ -12103,11 +11722,8 @@
       <c r="W127" t="s">
         <v>31</v>
       </c>
-      <c r="X127">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="128" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>23</v>
       </c>
@@ -12177,11 +11793,8 @@
       <c r="W128" t="s">
         <v>42</v>
       </c>
-      <c r="X128">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="129" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>23</v>
       </c>
@@ -12251,11 +11864,8 @@
       <c r="W129" t="s">
         <v>42</v>
       </c>
-      <c r="X129">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="130" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>23</v>
       </c>
@@ -12325,11 +11935,8 @@
       <c r="W130" t="s">
         <v>42</v>
       </c>
-      <c r="X130">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="131" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>23</v>
       </c>
@@ -12399,11 +12006,8 @@
       <c r="W131" t="s">
         <v>56</v>
       </c>
-      <c r="X131">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="132" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>23</v>
       </c>
@@ -12473,11 +12077,8 @@
       <c r="W132" t="s">
         <v>42</v>
       </c>
-      <c r="X132">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="133" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -12547,11 +12148,8 @@
       <c r="W133" t="s">
         <v>42</v>
       </c>
-      <c r="X133">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="134" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>23</v>
       </c>
@@ -12621,11 +12219,8 @@
       <c r="W134" t="s">
         <v>42</v>
       </c>
-      <c r="X134">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="135" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>23</v>
       </c>
@@ -12670,7 +12265,7 @@
       </c>
       <c r="O135">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="P135">
         <v>1</v>
@@ -12696,11 +12291,8 @@
       <c r="W135" t="s">
         <v>42</v>
       </c>
-      <c r="X135">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="136" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>114</v>
       </c>
@@ -12770,11 +12362,8 @@
       <c r="W136" t="s">
         <v>120</v>
       </c>
-      <c r="X136">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="137" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>23</v>
       </c>
@@ -12844,11 +12433,8 @@
       <c r="W137" t="s">
         <v>42</v>
       </c>
-      <c r="X137">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="138" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>23</v>
       </c>
@@ -12918,11 +12504,8 @@
       <c r="W138" t="s">
         <v>42</v>
       </c>
-      <c r="X138">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="139" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>114</v>
       </c>
@@ -12992,11 +12575,8 @@
       <c r="W139" t="s">
         <v>120</v>
       </c>
-      <c r="X139">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="140" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>23</v>
       </c>
@@ -13066,11 +12646,8 @@
       <c r="W140" t="s">
         <v>42</v>
       </c>
-      <c r="X140">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="141" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>23</v>
       </c>
@@ -13140,11 +12717,8 @@
       <c r="W141" t="s">
         <v>42</v>
       </c>
-      <c r="X141">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="142" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -13214,11 +12788,8 @@
       <c r="W142" t="s">
         <v>42</v>
       </c>
-      <c r="X142">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="143" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>23</v>
       </c>
@@ -13288,11 +12859,8 @@
       <c r="W143" t="s">
         <v>56</v>
       </c>
-      <c r="X143">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="144" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>23</v>
       </c>
@@ -13362,11 +12930,8 @@
       <c r="W144" t="s">
         <v>42</v>
       </c>
-      <c r="X144">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="145" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>23</v>
       </c>
@@ -13436,11 +13001,8 @@
       <c r="W145" t="s">
         <v>42</v>
       </c>
-      <c r="X145">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="146" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>23</v>
       </c>
@@ -13510,11 +13072,8 @@
       <c r="W146" t="s">
         <v>42</v>
       </c>
-      <c r="X146">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="147" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>23</v>
       </c>
@@ -13584,11 +13143,8 @@
       <c r="W147" t="s">
         <v>42</v>
       </c>
-      <c r="X147">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="148" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>86</v>
       </c>
@@ -13658,11 +13214,8 @@
       <c r="W148" t="s">
         <v>42</v>
       </c>
-      <c r="X148">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="149" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>86</v>
       </c>
@@ -13732,11 +13285,8 @@
       <c r="W149" t="s">
         <v>42</v>
       </c>
-      <c r="X149">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="150" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>114</v>
       </c>
@@ -13806,11 +13356,8 @@
       <c r="W150" t="s">
         <v>120</v>
       </c>
-      <c r="X150">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="151" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>114</v>
       </c>
@@ -13880,11 +13427,8 @@
       <c r="W151" t="s">
         <v>120</v>
       </c>
-      <c r="X151">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="152" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>23</v>
       </c>
@@ -13954,11 +13498,8 @@
       <c r="W152" t="s">
         <v>42</v>
       </c>
-      <c r="X152">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="153" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>23</v>
       </c>
@@ -14028,11 +13569,8 @@
       <c r="W153" t="s">
         <v>42</v>
       </c>
-      <c r="X153">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="154" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>23</v>
       </c>
@@ -14102,11 +13640,8 @@
       <c r="W154" t="s">
         <v>42</v>
       </c>
-      <c r="X154">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="155" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>23</v>
       </c>
@@ -14176,11 +13711,8 @@
       <c r="W155" t="s">
         <v>42</v>
       </c>
-      <c r="X155">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="156" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>23</v>
       </c>
@@ -14250,11 +13782,8 @@
       <c r="W156" t="s">
         <v>42</v>
       </c>
-      <c r="X156">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="157" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>23</v>
       </c>
@@ -14324,11 +13853,8 @@
       <c r="W157" t="s">
         <v>42</v>
       </c>
-      <c r="X157">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="158" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>23</v>
       </c>
@@ -14398,11 +13924,8 @@
       <c r="W158" t="s">
         <v>42</v>
       </c>
-      <c r="X158">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="159" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>23</v>
       </c>
@@ -14472,11 +13995,8 @@
       <c r="W159" t="s">
         <v>42</v>
       </c>
-      <c r="X159">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="160" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>23</v>
       </c>
@@ -14546,11 +14066,8 @@
       <c r="W160" t="s">
         <v>56</v>
       </c>
-      <c r="X160">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="161" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>23</v>
       </c>
@@ -14620,11 +14137,8 @@
       <c r="W161" t="s">
         <v>42</v>
       </c>
-      <c r="X161">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="162" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>23</v>
       </c>
@@ -14694,11 +14208,8 @@
       <c r="W162" t="s">
         <v>42</v>
       </c>
-      <c r="X162">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="163" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>23</v>
       </c>
@@ -14768,11 +14279,8 @@
       <c r="W163" t="s">
         <v>42</v>
       </c>
-      <c r="X163">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="164" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>23</v>
       </c>
@@ -14842,11 +14350,8 @@
       <c r="W164" t="s">
         <v>42</v>
       </c>
-      <c r="X164">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="165" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>23</v>
       </c>
@@ -14916,11 +14421,8 @@
       <c r="W165" t="s">
         <v>42</v>
       </c>
-      <c r="X165">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="166" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>23</v>
       </c>
@@ -14990,11 +14492,8 @@
       <c r="W166" t="s">
         <v>42</v>
       </c>
-      <c r="X166">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="167" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>23</v>
       </c>
@@ -15064,11 +14563,8 @@
       <c r="W167" t="s">
         <v>42</v>
       </c>
-      <c r="X167">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="168" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>114</v>
       </c>
@@ -15138,11 +14634,8 @@
       <c r="W168" t="s">
         <v>120</v>
       </c>
-      <c r="X168">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="169" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>114</v>
       </c>
@@ -15212,11 +14705,8 @@
       <c r="W169" t="s">
         <v>120</v>
       </c>
-      <c r="X169">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="170" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>114</v>
       </c>
@@ -15286,11 +14776,8 @@
       <c r="W170" t="s">
         <v>120</v>
       </c>
-      <c r="X170">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="171" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>23</v>
       </c>
@@ -15360,11 +14847,8 @@
       <c r="W171" t="s">
         <v>42</v>
       </c>
-      <c r="X171">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="172" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -15434,11 +14918,8 @@
       <c r="W172" t="s">
         <v>42</v>
       </c>
-      <c r="X172">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="173" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>23</v>
       </c>
@@ -15508,11 +14989,8 @@
       <c r="W173" t="s">
         <v>42</v>
       </c>
-      <c r="X173">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="174" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>103</v>
       </c>
@@ -15582,11 +15060,8 @@
       <c r="W174" t="s">
         <v>31</v>
       </c>
-      <c r="X174">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="175" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -15656,11 +15131,8 @@
       <c r="W175" t="s">
         <v>42</v>
       </c>
-      <c r="X175">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="176" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>23</v>
       </c>
@@ -15730,11 +15202,8 @@
       <c r="W176" t="s">
         <v>42</v>
       </c>
-      <c r="X176">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="177" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>23</v>
       </c>
@@ -15804,11 +15273,8 @@
       <c r="W177" t="s">
         <v>56</v>
       </c>
-      <c r="X177">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="178" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>23</v>
       </c>
@@ -15878,11 +15344,8 @@
       <c r="W178" t="s">
         <v>56</v>
       </c>
-      <c r="X178">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="179" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>23</v>
       </c>
@@ -15952,11 +15415,8 @@
       <c r="W179" t="s">
         <v>42</v>
       </c>
-      <c r="X179">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="180" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>23</v>
       </c>
@@ -16001,7 +15461,7 @@
       </c>
       <c r="O180">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="P180">
         <v>1</v>
@@ -16027,11 +15487,8 @@
       <c r="W180" t="s">
         <v>42</v>
       </c>
-      <c r="X180">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="181" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>23</v>
       </c>
@@ -16101,11 +15558,8 @@
       <c r="W181" t="s">
         <v>42</v>
       </c>
-      <c r="X181">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="182" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>23</v>
       </c>
@@ -16175,11 +15629,8 @@
       <c r="W182" t="s">
         <v>42</v>
       </c>
-      <c r="X182">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="183" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>23</v>
       </c>
@@ -16249,11 +15700,8 @@
       <c r="W183" t="s">
         <v>42</v>
       </c>
-      <c r="X183">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="184" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>23</v>
       </c>
@@ -16323,11 +15771,8 @@
       <c r="W184" t="s">
         <v>42</v>
       </c>
-      <c r="X184">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="185" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>23</v>
       </c>
@@ -16397,11 +15842,8 @@
       <c r="W185" t="s">
         <v>42</v>
       </c>
-      <c r="X185">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="186" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>23</v>
       </c>
@@ -16471,11 +15913,8 @@
       <c r="W186" t="s">
         <v>42</v>
       </c>
-      <c r="X186">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="187" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>23</v>
       </c>
@@ -16545,11 +15984,8 @@
       <c r="W187" t="s">
         <v>42</v>
       </c>
-      <c r="X187">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="188" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>23</v>
       </c>
@@ -16619,11 +16055,8 @@
       <c r="W188" t="s">
         <v>42</v>
       </c>
-      <c r="X188">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="189" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>114</v>
       </c>
@@ -16693,11 +16126,8 @@
       <c r="W189" t="s">
         <v>120</v>
       </c>
-      <c r="X189">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="190" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>23</v>
       </c>
@@ -16767,11 +16197,8 @@
       <c r="W190" t="s">
         <v>42</v>
       </c>
-      <c r="X190">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="191" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>23</v>
       </c>
@@ -16841,11 +16268,8 @@
       <c r="W191" t="s">
         <v>42</v>
       </c>
-      <c r="X191">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="192" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>23</v>
       </c>
@@ -16915,11 +16339,8 @@
       <c r="W192" t="s">
         <v>42</v>
       </c>
-      <c r="X192">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="193" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>23</v>
       </c>
@@ -16989,11 +16410,8 @@
       <c r="W193" t="s">
         <v>42</v>
       </c>
-      <c r="X193">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="194" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>23</v>
       </c>
@@ -17063,11 +16481,8 @@
       <c r="W194" t="s">
         <v>56</v>
       </c>
-      <c r="X194">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="195" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>23</v>
       </c>
@@ -17137,11 +16552,8 @@
       <c r="W195" t="s">
         <v>56</v>
       </c>
-      <c r="X195">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="196" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>23</v>
       </c>
@@ -17211,11 +16623,8 @@
       <c r="W196" t="s">
         <v>56</v>
       </c>
-      <c r="X196">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="197" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>23</v>
       </c>
@@ -17285,11 +16694,8 @@
       <c r="W197" t="s">
         <v>42</v>
       </c>
-      <c r="X197">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="198" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>23</v>
       </c>
@@ -17359,11 +16765,8 @@
       <c r="W198" t="s">
         <v>42</v>
       </c>
-      <c r="X198">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="199" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>23</v>
       </c>
@@ -17433,11 +16836,8 @@
       <c r="W199" t="s">
         <v>42</v>
       </c>
-      <c r="X199">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="200" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>23</v>
       </c>
@@ -17507,11 +16907,8 @@
       <c r="W200" t="s">
         <v>56</v>
       </c>
-      <c r="X200">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="201" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>86</v>
       </c>
@@ -17581,11 +16978,8 @@
       <c r="W201" t="s">
         <v>91</v>
       </c>
-      <c r="X201">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="202" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="202" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>23</v>
       </c>
@@ -17655,11 +17049,8 @@
       <c r="W202" t="s">
         <v>56</v>
       </c>
-      <c r="X202">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="203" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>23</v>
       </c>
@@ -17729,11 +17120,8 @@
       <c r="W203" t="s">
         <v>42</v>
       </c>
-      <c r="X203">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="204" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>23</v>
       </c>
@@ -17803,11 +17191,8 @@
       <c r="W204" t="s">
         <v>42</v>
       </c>
-      <c r="X204">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="205" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>114</v>
       </c>
@@ -17877,11 +17262,8 @@
       <c r="W205" t="s">
         <v>120</v>
       </c>
-      <c r="X205">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="206" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>23</v>
       </c>
@@ -17951,11 +17333,8 @@
       <c r="W206" t="s">
         <v>42</v>
       </c>
-      <c r="X206">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="207" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>23</v>
       </c>
@@ -18025,11 +17404,8 @@
       <c r="W207" t="s">
         <v>42</v>
       </c>
-      <c r="X207">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="208" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -18099,11 +17475,8 @@
       <c r="W208" t="s">
         <v>42</v>
       </c>
-      <c r="X208">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="209" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>23</v>
       </c>
@@ -18173,11 +17546,8 @@
       <c r="W209" t="s">
         <v>42</v>
       </c>
-      <c r="X209">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="210" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>23</v>
       </c>
@@ -18247,11 +17617,8 @@
       <c r="W210" t="s">
         <v>42</v>
       </c>
-      <c r="X210">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="211" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>23</v>
       </c>
@@ -18321,11 +17688,8 @@
       <c r="W211" t="s">
         <v>42</v>
       </c>
-      <c r="X211">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="212" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>23</v>
       </c>
@@ -18395,11 +17759,8 @@
       <c r="W212" t="s">
         <v>42</v>
       </c>
-      <c r="X212">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="213" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>23</v>
       </c>
@@ -18469,11 +17830,8 @@
       <c r="W213" t="s">
         <v>42</v>
       </c>
-      <c r="X213">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="214" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>23</v>
       </c>
@@ -18543,11 +17901,8 @@
       <c r="W214" t="s">
         <v>42</v>
       </c>
-      <c r="X214">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="215" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>23</v>
       </c>
@@ -18617,11 +17972,8 @@
       <c r="W215" t="s">
         <v>56</v>
       </c>
-      <c r="X215">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="216" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>23</v>
       </c>
@@ -18691,11 +18043,8 @@
       <c r="W216" t="s">
         <v>56</v>
       </c>
-      <c r="X216">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="217" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="217" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>23</v>
       </c>
@@ -18765,11 +18114,8 @@
       <c r="W217" t="s">
         <v>56</v>
       </c>
-      <c r="X217">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="218" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>23</v>
       </c>
@@ -18839,11 +18185,8 @@
       <c r="W218" t="s">
         <v>42</v>
       </c>
-      <c r="X218">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="219" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>103</v>
       </c>
@@ -18913,11 +18256,8 @@
       <c r="W219" t="s">
         <v>31</v>
       </c>
-      <c r="X219">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="220" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="220" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>23</v>
       </c>
@@ -18987,11 +18327,8 @@
       <c r="W220" t="s">
         <v>42</v>
       </c>
-      <c r="X220">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="221" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>114</v>
       </c>
@@ -19061,11 +18398,8 @@
       <c r="W221" t="s">
         <v>120</v>
       </c>
-      <c r="X221">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="222" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>23</v>
       </c>
@@ -19135,11 +18469,8 @@
       <c r="W222" t="s">
         <v>42</v>
       </c>
-      <c r="X222">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="223" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="223" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>23</v>
       </c>
@@ -19209,11 +18540,8 @@
       <c r="W223" t="s">
         <v>42</v>
       </c>
-      <c r="X223">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="224" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>23</v>
       </c>
@@ -19283,11 +18611,8 @@
       <c r="W224" t="s">
         <v>42</v>
       </c>
-      <c r="X224">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="225" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="225" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>23</v>
       </c>
@@ -19357,11 +18682,8 @@
       <c r="W225" t="s">
         <v>42</v>
       </c>
-      <c r="X225">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="226" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="226" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>23</v>
       </c>
@@ -19431,11 +18753,8 @@
       <c r="W226" t="s">
         <v>42</v>
       </c>
-      <c r="X226">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="227" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="227" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>114</v>
       </c>
@@ -19505,11 +18824,8 @@
       <c r="W227" t="s">
         <v>120</v>
       </c>
-      <c r="X227">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="228" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="228" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>114</v>
       </c>
@@ -19579,11 +18895,8 @@
       <c r="W228" t="s">
         <v>120</v>
       </c>
-      <c r="X228">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="229" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="229" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>114</v>
       </c>
@@ -19653,11 +18966,8 @@
       <c r="W229" t="s">
         <v>120</v>
       </c>
-      <c r="X229">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="230" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="230" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>23</v>
       </c>
@@ -19727,11 +19037,8 @@
       <c r="W230" t="s">
         <v>42</v>
       </c>
-      <c r="X230">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="231" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="231" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>23</v>
       </c>
@@ -19801,11 +19108,8 @@
       <c r="W231" t="s">
         <v>42</v>
       </c>
-      <c r="X231">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="232" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="232" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>23</v>
       </c>
@@ -19875,11 +19179,8 @@
       <c r="W232" t="s">
         <v>42</v>
       </c>
-      <c r="X232">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="233" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="233" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>23</v>
       </c>
@@ -19949,11 +19250,8 @@
       <c r="W233" t="s">
         <v>42</v>
       </c>
-      <c r="X233">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="234" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="234" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>23</v>
       </c>
@@ -20023,11 +19321,8 @@
       <c r="W234" t="s">
         <v>56</v>
       </c>
-      <c r="X234">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="235" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="235" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>23</v>
       </c>
@@ -20097,11 +19392,8 @@
       <c r="W235" t="s">
         <v>42</v>
       </c>
-      <c r="X235">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="236" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="236" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>114</v>
       </c>
@@ -20171,11 +19463,8 @@
       <c r="W236" t="s">
         <v>120</v>
       </c>
-      <c r="X236">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="237" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="237" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -20245,11 +19534,8 @@
       <c r="W237" t="s">
         <v>42</v>
       </c>
-      <c r="X237">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="238" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="238" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>23</v>
       </c>
@@ -20319,11 +19605,8 @@
       <c r="W238" t="s">
         <v>42</v>
       </c>
-      <c r="X238">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="239" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="239" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>23</v>
       </c>
@@ -20393,11 +19676,8 @@
       <c r="W239" t="s">
         <v>42</v>
       </c>
-      <c r="X239">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="240" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="240" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>23</v>
       </c>
@@ -20467,11 +19747,8 @@
       <c r="W240" t="s">
         <v>42</v>
       </c>
-      <c r="X240">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="241" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="241" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -20541,11 +19818,8 @@
       <c r="W241" t="s">
         <v>42</v>
       </c>
-      <c r="X241">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="242" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="242" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>23</v>
       </c>
@@ -20615,11 +19889,8 @@
       <c r="W242" t="s">
         <v>42</v>
       </c>
-      <c r="X242">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="243" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>23</v>
       </c>
@@ -20689,11 +19960,8 @@
       <c r="W243" t="s">
         <v>42</v>
       </c>
-      <c r="X243">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="244" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>23</v>
       </c>
@@ -20763,11 +20031,8 @@
       <c r="W244" t="s">
         <v>42</v>
       </c>
-      <c r="X244">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="245" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="245" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>23</v>
       </c>
@@ -20837,11 +20102,8 @@
       <c r="W245" t="s">
         <v>42</v>
       </c>
-      <c r="X245">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="246" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -20911,11 +20173,8 @@
       <c r="W246" t="s">
         <v>42</v>
       </c>
-      <c r="X246">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="247" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>23</v>
       </c>
@@ -20985,11 +20244,8 @@
       <c r="W247" t="s">
         <v>42</v>
       </c>
-      <c r="X247">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="248" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>23</v>
       </c>
@@ -21059,11 +20315,8 @@
       <c r="W248" t="s">
         <v>42</v>
       </c>
-      <c r="X248">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="249" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>23</v>
       </c>
@@ -21133,11 +20386,8 @@
       <c r="W249" t="s">
         <v>42</v>
       </c>
-      <c r="X249">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="250" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>23</v>
       </c>
@@ -21207,11 +20457,8 @@
       <c r="W250" t="s">
         <v>42</v>
       </c>
-      <c r="X250">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="251" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>23</v>
       </c>
@@ -21281,11 +20528,8 @@
       <c r="W251" t="s">
         <v>42</v>
       </c>
-      <c r="X251">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="252" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>23</v>
       </c>
@@ -21355,11 +20599,8 @@
       <c r="W252" t="s">
         <v>42</v>
       </c>
-      <c r="X252">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="253" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>23</v>
       </c>
@@ -21429,11 +20670,8 @@
       <c r="W253" t="s">
         <v>42</v>
       </c>
-      <c r="X253">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="254" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>23</v>
       </c>
@@ -21503,11 +20741,8 @@
       <c r="W254" t="s">
         <v>42</v>
       </c>
-      <c r="X254">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="255" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>23</v>
       </c>
@@ -21577,11 +20812,8 @@
       <c r="W255" t="s">
         <v>42</v>
       </c>
-      <c r="X255">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="256" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>103</v>
       </c>
@@ -21651,11 +20883,8 @@
       <c r="W256" t="s">
         <v>31</v>
       </c>
-      <c r="X256">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="257" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>23</v>
       </c>
@@ -21725,11 +20954,8 @@
       <c r="W257" t="s">
         <v>42</v>
       </c>
-      <c r="X257">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="258" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>103</v>
       </c>
@@ -21799,11 +21025,8 @@
       <c r="W258" t="s">
         <v>31</v>
       </c>
-      <c r="X258">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="259" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>23</v>
       </c>
@@ -21873,11 +21096,8 @@
       <c r="W259" t="s">
         <v>42</v>
       </c>
-      <c r="X259">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="260" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>23</v>
       </c>
@@ -21947,11 +21167,8 @@
       <c r="W260" t="s">
         <v>42</v>
       </c>
-      <c r="X260">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="261" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>23</v>
       </c>
@@ -22021,11 +21238,8 @@
       <c r="W261" t="s">
         <v>42</v>
       </c>
-      <c r="X261">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="262" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>23</v>
       </c>
@@ -22095,11 +21309,8 @@
       <c r="W262" t="s">
         <v>42</v>
       </c>
-      <c r="X262">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="263" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>23</v>
       </c>
@@ -22169,11 +21380,8 @@
       <c r="W263" t="s">
         <v>42</v>
       </c>
-      <c r="X263">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="264" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>23</v>
       </c>
@@ -22243,11 +21451,8 @@
       <c r="W264" t="s">
         <v>56</v>
       </c>
-      <c r="X264">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="265" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>23</v>
       </c>
@@ -22317,11 +21522,8 @@
       <c r="W265" t="s">
         <v>42</v>
       </c>
-      <c r="X265">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="266" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>23</v>
       </c>
@@ -22391,11 +21593,8 @@
       <c r="W266" t="s">
         <v>42</v>
       </c>
-      <c r="X266">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="267" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="267" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>23</v>
       </c>
@@ -22465,11 +21664,8 @@
       <c r="W267" t="s">
         <v>42</v>
       </c>
-      <c r="X267">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="268" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="268" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>23</v>
       </c>
@@ -22539,11 +21735,8 @@
       <c r="W268" t="s">
         <v>42</v>
       </c>
-      <c r="X268">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="269" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="269" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>23</v>
       </c>
@@ -22613,11 +21806,8 @@
       <c r="W269" t="s">
         <v>42</v>
       </c>
-      <c r="X269">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="270" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="270" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>23</v>
       </c>
@@ -22687,11 +21877,8 @@
       <c r="W270" t="s">
         <v>42</v>
       </c>
-      <c r="X270">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="271" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="271" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>23</v>
       </c>
@@ -22761,11 +21948,8 @@
       <c r="W271" t="s">
         <v>42</v>
       </c>
-      <c r="X271">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="272" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="272" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>23</v>
       </c>
@@ -22835,11 +22019,8 @@
       <c r="W272" t="s">
         <v>42</v>
       </c>
-      <c r="X272">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="273" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="273" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>23</v>
       </c>
@@ -22909,11 +22090,8 @@
       <c r="W273" t="s">
         <v>42</v>
       </c>
-      <c r="X273">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="274" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="274" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -22983,11 +22161,8 @@
       <c r="W274" t="s">
         <v>42</v>
       </c>
-      <c r="X274">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="275" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="275" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>23</v>
       </c>
@@ -23057,11 +22232,8 @@
       <c r="W275" t="s">
         <v>42</v>
       </c>
-      <c r="X275">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="276" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="276" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>23</v>
       </c>
@@ -23131,11 +22303,8 @@
       <c r="W276" t="s">
         <v>56</v>
       </c>
-      <c r="X276">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="277" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="277" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>23</v>
       </c>
@@ -23205,11 +22374,8 @@
       <c r="W277" t="s">
         <v>42</v>
       </c>
-      <c r="X277">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="278" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="278" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>114</v>
       </c>
@@ -23279,11 +22445,8 @@
       <c r="W278" t="s">
         <v>120</v>
       </c>
-      <c r="X278">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="279" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="279" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>23</v>
       </c>
@@ -23353,11 +22516,8 @@
       <c r="W279" t="s">
         <v>42</v>
       </c>
-      <c r="X279">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="280" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="280" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>23</v>
       </c>
@@ -23427,11 +22587,8 @@
       <c r="W280" t="s">
         <v>42</v>
       </c>
-      <c r="X280">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="281" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="281" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>23</v>
       </c>
@@ -23501,11 +22658,8 @@
       <c r="W281" t="s">
         <v>42</v>
       </c>
-      <c r="X281">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="282" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="282" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>23</v>
       </c>
@@ -23575,11 +22729,8 @@
       <c r="W282" t="s">
         <v>42</v>
       </c>
-      <c r="X282">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="283" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="283" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>23</v>
       </c>
@@ -23649,11 +22800,8 @@
       <c r="W283" t="s">
         <v>42</v>
       </c>
-      <c r="X283">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="284" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="284" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>23</v>
       </c>
@@ -23723,11 +22871,8 @@
       <c r="W284" t="s">
         <v>42</v>
       </c>
-      <c r="X284">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="285" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="285" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>23</v>
       </c>
@@ -23797,11 +22942,8 @@
       <c r="W285" t="s">
         <v>42</v>
       </c>
-      <c r="X285">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="286" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="286" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>23</v>
       </c>
@@ -23871,11 +23013,8 @@
       <c r="W286" t="s">
         <v>42</v>
       </c>
-      <c r="X286">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="287" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="287" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>23</v>
       </c>
@@ -23945,11 +23084,8 @@
       <c r="W287" t="s">
         <v>42</v>
       </c>
-      <c r="X287">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="288" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="288" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>23</v>
       </c>
@@ -24019,11 +23155,8 @@
       <c r="W288" t="s">
         <v>42</v>
       </c>
-      <c r="X288">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="289" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="289" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>114</v>
       </c>
@@ -24093,11 +23226,8 @@
       <c r="W289" t="s">
         <v>120</v>
       </c>
-      <c r="X289">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="290" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="290" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>425</v>
       </c>
@@ -24167,11 +23297,8 @@
       <c r="W290" t="s">
         <v>56</v>
       </c>
-      <c r="X290">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="291" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="291" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>23</v>
       </c>
@@ -24241,11 +23368,8 @@
       <c r="W291" t="s">
         <v>42</v>
       </c>
-      <c r="X291">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="292" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="292" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>23</v>
       </c>
@@ -24290,7 +23414,7 @@
       </c>
       <c r="O292">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="P292">
         <v>1</v>
@@ -24316,11 +23440,8 @@
       <c r="W292" t="s">
         <v>42</v>
       </c>
-      <c r="X292">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="293" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="293" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>103</v>
       </c>
@@ -24390,11 +23511,8 @@
       <c r="W293" t="s">
         <v>31</v>
       </c>
-      <c r="X293">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="294" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="294" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>103</v>
       </c>
@@ -24464,11 +23582,8 @@
       <c r="W294" t="s">
         <v>31</v>
       </c>
-      <c r="X294">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="295" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="295" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>103</v>
       </c>
@@ -24538,11 +23653,8 @@
       <c r="W295" t="s">
         <v>31</v>
       </c>
-      <c r="X295">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="296" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="296" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>23</v>
       </c>
@@ -24612,11 +23724,8 @@
       <c r="W296" t="s">
         <v>42</v>
       </c>
-      <c r="X296">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="297" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="297" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>86</v>
       </c>
@@ -24686,11 +23795,8 @@
       <c r="W297" t="s">
         <v>91</v>
       </c>
-      <c r="X297">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="298" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="298" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>86</v>
       </c>
@@ -24760,11 +23866,8 @@
       <c r="W298" t="s">
         <v>91</v>
       </c>
-      <c r="X298">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="299" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="299" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>23</v>
       </c>
@@ -24834,11 +23937,8 @@
       <c r="W299" t="s">
         <v>42</v>
       </c>
-      <c r="X299">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="300" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="300" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>23</v>
       </c>
@@ -24908,11 +24008,8 @@
       <c r="W300" t="s">
         <v>42</v>
       </c>
-      <c r="X300">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="301" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="301" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>23</v>
       </c>
@@ -24982,11 +24079,8 @@
       <c r="W301" t="s">
         <v>42</v>
       </c>
-      <c r="X301">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="302" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="302" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>23</v>
       </c>
@@ -25056,11 +24150,8 @@
       <c r="W302" t="s">
         <v>42</v>
       </c>
-      <c r="X302">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="303" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="303" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>23</v>
       </c>
@@ -25130,11 +24221,8 @@
       <c r="W303" t="s">
         <v>42</v>
       </c>
-      <c r="X303">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="304" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>23</v>
       </c>
@@ -25204,11 +24292,8 @@
       <c r="W304" t="s">
         <v>56</v>
       </c>
-      <c r="X304">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="305" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>23</v>
       </c>
@@ -25278,11 +24363,8 @@
       <c r="W305" t="s">
         <v>56</v>
       </c>
-      <c r="X305">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="306" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>23</v>
       </c>
@@ -25352,11 +24434,8 @@
       <c r="W306" t="s">
         <v>56</v>
       </c>
-      <c r="X306">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="307" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>86</v>
       </c>
@@ -25426,11 +24505,8 @@
       <c r="W307" t="s">
         <v>42</v>
       </c>
-      <c r="X307">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="308" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>86</v>
       </c>
@@ -25500,11 +24576,8 @@
       <c r="W308" t="s">
         <v>42</v>
       </c>
-      <c r="X308">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="309" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>23</v>
       </c>
@@ -25574,11 +24647,8 @@
       <c r="W309" t="s">
         <v>42</v>
       </c>
-      <c r="X309">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="310" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>23</v>
       </c>
@@ -25648,11 +24718,8 @@
       <c r="W310" t="s">
         <v>42</v>
       </c>
-      <c r="X310">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="311" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>23</v>
       </c>
@@ -25722,11 +24789,8 @@
       <c r="W311" t="s">
         <v>42</v>
       </c>
-      <c r="X311">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="312" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>23</v>
       </c>
@@ -25796,11 +24860,8 @@
       <c r="W312" t="s">
         <v>42</v>
       </c>
-      <c r="X312">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="313" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>23</v>
       </c>
@@ -25870,11 +24931,8 @@
       <c r="W313" t="s">
         <v>42</v>
       </c>
-      <c r="X313">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="314" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>23</v>
       </c>
@@ -25944,11 +25002,8 @@
       <c r="W314" t="s">
         <v>42</v>
       </c>
-      <c r="X314">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="315" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>23</v>
       </c>
@@ -26018,11 +25073,8 @@
       <c r="W315" t="s">
         <v>42</v>
       </c>
-      <c r="X315">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="316" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>23</v>
       </c>
@@ -26092,11 +25144,8 @@
       <c r="W316" t="s">
         <v>42</v>
       </c>
-      <c r="X316">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="317" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>103</v>
       </c>
@@ -26166,11 +25215,8 @@
       <c r="W317" t="s">
         <v>31</v>
       </c>
-      <c r="X317">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="318" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>103</v>
       </c>
@@ -26240,11 +25286,8 @@
       <c r="W318" t="s">
         <v>31</v>
       </c>
-      <c r="X318">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="319" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>23</v>
       </c>
@@ -26314,11 +25357,8 @@
       <c r="W319" t="s">
         <v>42</v>
       </c>
-      <c r="X319">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="320" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>86</v>
       </c>
@@ -26388,11 +25428,8 @@
       <c r="W320" t="s">
         <v>91</v>
       </c>
-      <c r="X320">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="321" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>23</v>
       </c>
@@ -26462,11 +25499,8 @@
       <c r="W321" t="s">
         <v>56</v>
       </c>
-      <c r="X321">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="322" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>23</v>
       </c>
@@ -26536,11 +25570,8 @@
       <c r="W322" t="s">
         <v>42</v>
       </c>
-      <c r="X322">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="323" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>23</v>
       </c>
@@ -26610,11 +25641,8 @@
       <c r="W323" t="s">
         <v>56</v>
       </c>
-      <c r="X323">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="324" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>23</v>
       </c>
@@ -26684,11 +25712,8 @@
       <c r="W324" t="s">
         <v>42</v>
       </c>
-      <c r="X324">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="325" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="325" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>23</v>
       </c>
@@ -26758,11 +25783,8 @@
       <c r="W325" t="s">
         <v>56</v>
       </c>
-      <c r="X325">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="326" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="326" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>23</v>
       </c>
@@ -26832,11 +25854,8 @@
       <c r="W326" t="s">
         <v>56</v>
       </c>
-      <c r="X326">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="327" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="327" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>23</v>
       </c>
@@ -26906,11 +25925,8 @@
       <c r="W327" t="s">
         <v>42</v>
       </c>
-      <c r="X327">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="328" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="328" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>23</v>
       </c>
@@ -26980,11 +25996,8 @@
       <c r="W328" t="s">
         <v>42</v>
       </c>
-      <c r="X328">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="329" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="329" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>23</v>
       </c>
@@ -27054,11 +26067,8 @@
       <c r="W329" t="s">
         <v>42</v>
       </c>
-      <c r="X329">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="330" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="330" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>23</v>
       </c>
@@ -27128,11 +26138,8 @@
       <c r="W330" t="s">
         <v>42</v>
       </c>
-      <c r="X330">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="331" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="331" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>23</v>
       </c>
@@ -27202,11 +26209,8 @@
       <c r="W331" t="s">
         <v>42</v>
       </c>
-      <c r="X331">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="332" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="332" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>23</v>
       </c>
@@ -27276,11 +26280,8 @@
       <c r="W332" t="s">
         <v>42</v>
       </c>
-      <c r="X332">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="333" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="333" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>23</v>
       </c>
@@ -27350,11 +26351,8 @@
       <c r="W333" t="s">
         <v>42</v>
       </c>
-      <c r="X333">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="334" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="334" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>86</v>
       </c>
@@ -27424,11 +26422,8 @@
       <c r="W334" t="s">
         <v>42</v>
       </c>
-      <c r="X334">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="335" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="335" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>103</v>
       </c>
@@ -27498,11 +26493,8 @@
       <c r="W335" t="s">
         <v>31</v>
       </c>
-      <c r="X335">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="336" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="336" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>103</v>
       </c>
@@ -27572,11 +26564,8 @@
       <c r="W336" t="s">
         <v>31</v>
       </c>
-      <c r="X336">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="337" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="337" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>86</v>
       </c>
@@ -27646,11 +26635,8 @@
       <c r="W337" t="s">
         <v>91</v>
       </c>
-      <c r="X337">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="338" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="338" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>425</v>
       </c>
@@ -27720,11 +26706,8 @@
       <c r="W338" t="s">
         <v>56</v>
       </c>
-      <c r="X338">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="339" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="339" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>114</v>
       </c>
@@ -27794,11 +26777,8 @@
       <c r="W339" t="s">
         <v>120</v>
       </c>
-      <c r="X339">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="340" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="340" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>114</v>
       </c>
@@ -27868,11 +26848,8 @@
       <c r="W340" t="s">
         <v>120</v>
       </c>
-      <c r="X340">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="341" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="341" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>86</v>
       </c>
@@ -27942,11 +26919,8 @@
       <c r="W341" t="s">
         <v>91</v>
       </c>
-      <c r="X341">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="342" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="342" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>86</v>
       </c>
@@ -28016,11 +26990,8 @@
       <c r="W342" t="s">
         <v>91</v>
       </c>
-      <c r="X342">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="343" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="343" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>23</v>
       </c>
@@ -28090,11 +27061,8 @@
       <c r="W343" t="s">
         <v>42</v>
       </c>
-      <c r="X343">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="344" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="344" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>23</v>
       </c>
@@ -28164,11 +27132,8 @@
       <c r="W344" t="s">
         <v>42</v>
       </c>
-      <c r="X344">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="345" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>23</v>
       </c>
@@ -28238,11 +27203,8 @@
       <c r="W345" t="s">
         <v>42</v>
       </c>
-      <c r="X345">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="346" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>23</v>
       </c>
@@ -28312,11 +27274,8 @@
       <c r="W346" t="s">
         <v>42</v>
       </c>
-      <c r="X346">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="347" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>23</v>
       </c>
@@ -28386,11 +27345,8 @@
       <c r="W347" t="s">
         <v>42</v>
       </c>
-      <c r="X347">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="348" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>23</v>
       </c>
@@ -28460,11 +27416,8 @@
       <c r="W348" t="s">
         <v>42</v>
       </c>
-      <c r="X348">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="349" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>23</v>
       </c>
@@ -28534,11 +27487,8 @@
       <c r="W349" t="s">
         <v>42</v>
       </c>
-      <c r="X349">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="350" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>114</v>
       </c>
@@ -28608,11 +27558,8 @@
       <c r="W350" t="s">
         <v>56</v>
       </c>
-      <c r="X350">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="351" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>23</v>
       </c>
@@ -28682,11 +27629,8 @@
       <c r="W351" t="s">
         <v>42</v>
       </c>
-      <c r="X351">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="352" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>103</v>
       </c>
@@ -28756,11 +27700,8 @@
       <c r="W352" t="s">
         <v>31</v>
       </c>
-      <c r="X352">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="353" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>23</v>
       </c>
@@ -28830,11 +27771,8 @@
       <c r="W353" t="s">
         <v>42</v>
       </c>
-      <c r="X353">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="354" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>23</v>
       </c>
@@ -28904,11 +27842,8 @@
       <c r="W354" t="s">
         <v>42</v>
       </c>
-      <c r="X354">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="355" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>23</v>
       </c>
@@ -28978,11 +27913,8 @@
       <c r="W355" t="s">
         <v>42</v>
       </c>
-      <c r="X355">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="356" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>23</v>
       </c>
@@ -29052,11 +27984,8 @@
       <c r="W356" t="s">
         <v>42</v>
       </c>
-      <c r="X356">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="357" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>23</v>
       </c>
@@ -29126,11 +28055,8 @@
       <c r="W357" t="s">
         <v>42</v>
       </c>
-      <c r="X357">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="358" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>23</v>
       </c>
@@ -29200,11 +28126,8 @@
       <c r="W358" t="s">
         <v>42</v>
       </c>
-      <c r="X358">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="359" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>23</v>
       </c>
@@ -29274,11 +28197,8 @@
       <c r="W359" t="s">
         <v>42</v>
       </c>
-      <c r="X359">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="360" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>23</v>
       </c>
@@ -29348,11 +28268,8 @@
       <c r="W360" t="s">
         <v>42</v>
       </c>
-      <c r="X360">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="361" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>23</v>
       </c>
@@ -29422,11 +28339,8 @@
       <c r="W361" t="s">
         <v>42</v>
       </c>
-      <c r="X361">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>425</v>
       </c>
@@ -29496,11 +28410,8 @@
       <c r="W362" t="s">
         <v>56</v>
       </c>
-      <c r="X362">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="363" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>23</v>
       </c>
@@ -29570,11 +28481,8 @@
       <c r="W363" t="s">
         <v>42</v>
       </c>
-      <c r="X363">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="364" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>425</v>
       </c>
@@ -29644,11 +28552,8 @@
       <c r="W364" t="s">
         <v>56</v>
       </c>
-      <c r="X364">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="365" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>425</v>
       </c>
@@ -29718,11 +28623,8 @@
       <c r="W365" t="s">
         <v>56</v>
       </c>
-      <c r="X365">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="366" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="366" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>23</v>
       </c>
@@ -29792,11 +28694,8 @@
       <c r="W366" t="s">
         <v>42</v>
       </c>
-      <c r="X366">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="367" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="367" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>23</v>
       </c>
@@ -29866,11 +28765,8 @@
       <c r="W367" t="s">
         <v>42</v>
       </c>
-      <c r="X367">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="368" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="368" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>23</v>
       </c>
@@ -29940,11 +28836,8 @@
       <c r="W368" t="s">
         <v>42</v>
       </c>
-      <c r="X368">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="369" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="369" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>23</v>
       </c>
@@ -30014,11 +28907,8 @@
       <c r="W369" t="s">
         <v>42</v>
       </c>
-      <c r="X369">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="370" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="370" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>23</v>
       </c>
@@ -30088,11 +28978,8 @@
       <c r="W370" t="s">
         <v>42</v>
       </c>
-      <c r="X370">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="371" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="371" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>23</v>
       </c>
@@ -30162,11 +29049,8 @@
       <c r="W371" t="s">
         <v>42</v>
       </c>
-      <c r="X371">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="372" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="372" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>23</v>
       </c>
@@ -30236,11 +29120,8 @@
       <c r="W372" t="s">
         <v>42</v>
       </c>
-      <c r="X372">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="373" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="373" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>23</v>
       </c>
@@ -30310,11 +29191,8 @@
       <c r="W373" t="s">
         <v>42</v>
       </c>
-      <c r="X373">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="374" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="374" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>23</v>
       </c>
@@ -30384,11 +29262,8 @@
       <c r="W374" t="s">
         <v>42</v>
       </c>
-      <c r="X374">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="375" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="375" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>23</v>
       </c>
@@ -30458,11 +29333,8 @@
       <c r="W375" t="s">
         <v>42</v>
       </c>
-      <c r="X375">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="376" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="376" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>23</v>
       </c>
@@ -30532,11 +29404,8 @@
       <c r="W376" t="s">
         <v>42</v>
       </c>
-      <c r="X376">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="377" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>23</v>
       </c>
@@ -30606,11 +29475,8 @@
       <c r="W377" t="s">
         <v>42</v>
       </c>
-      <c r="X377">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="378" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="378" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>103</v>
       </c>
@@ -30680,11 +29546,8 @@
       <c r="W378" t="s">
         <v>31</v>
       </c>
-      <c r="X378">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="379" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="379" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>23</v>
       </c>
@@ -30754,11 +29617,8 @@
       <c r="W379" t="s">
         <v>42</v>
       </c>
-      <c r="X379">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="380" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="380" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>23</v>
       </c>
@@ -30828,11 +29688,8 @@
       <c r="W380" t="s">
         <v>42</v>
       </c>
-      <c r="X380">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="381" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="381" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>23</v>
       </c>
@@ -30902,11 +29759,8 @@
       <c r="W381" t="s">
         <v>42</v>
       </c>
-      <c r="X381">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="382" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="382" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>23</v>
       </c>
@@ -30976,11 +29830,8 @@
       <c r="W382" t="s">
         <v>42</v>
       </c>
-      <c r="X382">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="383" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="383" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>23</v>
       </c>
@@ -31050,11 +29901,8 @@
       <c r="W383" t="s">
         <v>42</v>
       </c>
-      <c r="X383">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="384" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="384" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>23</v>
       </c>
@@ -31124,11 +29972,8 @@
       <c r="W384" t="s">
         <v>42</v>
       </c>
-      <c r="X384">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="385" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="385" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>23</v>
       </c>
@@ -31173,7 +30018,7 @@
       </c>
       <c r="O385">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="P385">
         <v>1</v>
@@ -31199,11 +30044,8 @@
       <c r="W385" t="s">
         <v>42</v>
       </c>
-      <c r="X385">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="386" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="386" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>23</v>
       </c>
@@ -31273,11 +30115,8 @@
       <c r="W386" t="s">
         <v>42</v>
       </c>
-      <c r="X386">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="387" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="387" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>23</v>
       </c>
@@ -31347,11 +30186,8 @@
       <c r="W387" t="s">
         <v>42</v>
       </c>
-      <c r="X387">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="388" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="388" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>114</v>
       </c>
@@ -31421,11 +30257,8 @@
       <c r="W388" t="s">
         <v>120</v>
       </c>
-      <c r="X388">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="389" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="389" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>23</v>
       </c>
@@ -31495,11 +30328,8 @@
       <c r="W389" t="s">
         <v>42</v>
       </c>
-      <c r="X389">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="390" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="390" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>23</v>
       </c>
@@ -31569,11 +30399,8 @@
       <c r="W390" t="s">
         <v>42</v>
       </c>
-      <c r="X390">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="391" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="391" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>23</v>
       </c>
@@ -31643,11 +30470,8 @@
       <c r="W391" t="s">
         <v>42</v>
       </c>
-      <c r="X391">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="392" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="392" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>23</v>
       </c>
@@ -31717,11 +30541,8 @@
       <c r="W392" t="s">
         <v>42</v>
       </c>
-      <c r="X392">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="393" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="393" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>86</v>
       </c>
@@ -31791,11 +30612,8 @@
       <c r="W393" t="s">
         <v>42</v>
       </c>
-      <c r="X393">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="394" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="394" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>23</v>
       </c>
@@ -31865,11 +30683,8 @@
       <c r="W394" t="s">
         <v>42</v>
       </c>
-      <c r="X394">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="395" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="395" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>114</v>
       </c>
@@ -31939,11 +30754,8 @@
       <c r="W395" t="s">
         <v>120</v>
       </c>
-      <c r="X395">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="396" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="396" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>23</v>
       </c>
@@ -32013,11 +30825,8 @@
       <c r="W396" t="s">
         <v>42</v>
       </c>
-      <c r="X396">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="397" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="397" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>23</v>
       </c>
@@ -32087,11 +30896,8 @@
       <c r="W397" t="s">
         <v>42</v>
       </c>
-      <c r="X397">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="398" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="398" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>86</v>
       </c>
@@ -32161,11 +30967,8 @@
       <c r="W398" t="s">
         <v>91</v>
       </c>
-      <c r="X398">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="399" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="399" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>86</v>
       </c>
@@ -32235,11 +31038,8 @@
       <c r="W399" t="s">
         <v>91</v>
       </c>
-      <c r="X399">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="400" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="400" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>23</v>
       </c>
@@ -32309,11 +31109,8 @@
       <c r="W400" t="s">
         <v>42</v>
       </c>
-      <c r="X400">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="401" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="401" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>23</v>
       </c>
@@ -32383,11 +31180,8 @@
       <c r="W401" t="s">
         <v>42</v>
       </c>
-      <c r="X401">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="402" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="402" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>23</v>
       </c>
@@ -32457,11 +31251,8 @@
       <c r="W402" t="s">
         <v>56</v>
       </c>
-      <c r="X402">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="403" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="403" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>23</v>
       </c>
@@ -32531,11 +31322,8 @@
       <c r="W403" t="s">
         <v>42</v>
       </c>
-      <c r="X403">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="404" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="404" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>23</v>
       </c>
@@ -32605,11 +31393,8 @@
       <c r="W404" t="s">
         <v>42</v>
       </c>
-      <c r="X404">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="405" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="405" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>114</v>
       </c>
@@ -32679,11 +31464,8 @@
       <c r="W405" t="s">
         <v>31</v>
       </c>
-      <c r="X405">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="406" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="406" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>114</v>
       </c>
@@ -32753,11 +31535,8 @@
       <c r="W406" t="s">
         <v>31</v>
       </c>
-      <c r="X406">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="407" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="407" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>114</v>
       </c>
@@ -32827,11 +31606,8 @@
       <c r="W407" t="s">
         <v>120</v>
       </c>
-      <c r="X407">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="408" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="408" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>23</v>
       </c>
@@ -32901,11 +31677,8 @@
       <c r="W408" t="s">
         <v>42</v>
       </c>
-      <c r="X408">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="409" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="409" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>23</v>
       </c>
@@ -32975,11 +31748,8 @@
       <c r="W409" t="s">
         <v>42</v>
       </c>
-      <c r="X409">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="410" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="410" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>23</v>
       </c>
@@ -33049,11 +31819,8 @@
       <c r="W410" t="s">
         <v>42</v>
       </c>
-      <c r="X410">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="411" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="411" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>23</v>
       </c>
@@ -33123,11 +31890,8 @@
       <c r="W411" t="s">
         <v>56</v>
       </c>
-      <c r="X411">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="412" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="412" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>32</v>
       </c>
@@ -33197,11 +31961,8 @@
       <c r="W412" t="s">
         <v>56</v>
       </c>
-      <c r="X412">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="413" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="413" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>86</v>
       </c>
@@ -33271,11 +32032,8 @@
       <c r="W413" t="s">
         <v>91</v>
       </c>
-      <c r="X413">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="414" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="414" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>23</v>
       </c>
@@ -33345,11 +32103,8 @@
       <c r="W414" t="s">
         <v>42</v>
       </c>
-      <c r="X414">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="415" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="415" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>23</v>
       </c>
@@ -33419,11 +32174,8 @@
       <c r="W415" t="s">
         <v>42</v>
       </c>
-      <c r="X415">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="416" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="416" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>23</v>
       </c>
@@ -33493,11 +32245,8 @@
       <c r="W416" t="s">
         <v>42</v>
       </c>
-      <c r="X416">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="417" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>114</v>
       </c>
@@ -33567,11 +32316,8 @@
       <c r="W417" t="s">
         <v>120</v>
       </c>
-      <c r="X417">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="418" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="418" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>114</v>
       </c>
@@ -33641,11 +32387,8 @@
       <c r="W418" t="s">
         <v>120</v>
       </c>
-      <c r="X418">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="419" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="419" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>23</v>
       </c>
@@ -33715,11 +32458,8 @@
       <c r="W419" t="s">
         <v>42</v>
       </c>
-      <c r="X419">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="420" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="420" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>23</v>
       </c>
@@ -33789,11 +32529,8 @@
       <c r="W420" t="s">
         <v>42</v>
       </c>
-      <c r="X420">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="421" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="421" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>86</v>
       </c>
@@ -33863,11 +32600,8 @@
       <c r="W421" t="s">
         <v>42</v>
       </c>
-      <c r="X421">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="422" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="422" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>23</v>
       </c>
@@ -33937,11 +32671,8 @@
       <c r="W422" t="s">
         <v>42</v>
       </c>
-      <c r="X422">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="423" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="423" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>23</v>
       </c>
@@ -34011,11 +32742,8 @@
       <c r="W423" t="s">
         <v>42</v>
       </c>
-      <c r="X423">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="424" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="424" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>23</v>
       </c>
@@ -34085,11 +32813,8 @@
       <c r="W424" t="s">
         <v>42</v>
       </c>
-      <c r="X424">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="425" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="425" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>23</v>
       </c>
@@ -34159,11 +32884,8 @@
       <c r="W425" t="s">
         <v>42</v>
       </c>
-      <c r="X425">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="426" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="426" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>23</v>
       </c>
@@ -34233,11 +32955,8 @@
       <c r="W426" t="s">
         <v>42</v>
       </c>
-      <c r="X426">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="427" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="427" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>23</v>
       </c>
@@ -34307,11 +33026,8 @@
       <c r="W427" t="s">
         <v>42</v>
       </c>
-      <c r="X427">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="428" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="428" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>23</v>
       </c>
@@ -34381,11 +33097,8 @@
       <c r="W428" t="s">
         <v>56</v>
       </c>
-      <c r="X428">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="429" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="429" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>114</v>
       </c>
@@ -34455,11 +33168,8 @@
       <c r="W429" t="s">
         <v>120</v>
       </c>
-      <c r="X429">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="430" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="430" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>114</v>
       </c>
@@ -34529,11 +33239,8 @@
       <c r="W430" t="s">
         <v>120</v>
       </c>
-      <c r="X430">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="431" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="431" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>23</v>
       </c>
@@ -34603,11 +33310,8 @@
       <c r="W431" t="s">
         <v>56</v>
       </c>
-      <c r="X431">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="432" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="432" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>23</v>
       </c>
@@ -34677,11 +33381,8 @@
       <c r="W432" t="s">
         <v>56</v>
       </c>
-      <c r="X432">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="433" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="433" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>23</v>
       </c>
@@ -34751,11 +33452,8 @@
       <c r="W433" t="s">
         <v>42</v>
       </c>
-      <c r="X433">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="434" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="434" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>86</v>
       </c>
@@ -34825,11 +33523,8 @@
       <c r="W434" t="s">
         <v>91</v>
       </c>
-      <c r="X434">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="435" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="435" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>114</v>
       </c>
@@ -34899,11 +33594,8 @@
       <c r="W435" t="s">
         <v>120</v>
       </c>
-      <c r="X435">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="436" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="436" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>103</v>
       </c>
@@ -34973,11 +33665,8 @@
       <c r="W436" t="s">
         <v>31</v>
       </c>
-      <c r="X436">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="437" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="437" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>23</v>
       </c>
@@ -35047,11 +33736,8 @@
       <c r="W437" t="s">
         <v>42</v>
       </c>
-      <c r="X437">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="438" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="438" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>425</v>
       </c>
@@ -35121,11 +33807,8 @@
       <c r="W438" t="s">
         <v>56</v>
       </c>
-      <c r="X438">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="439" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="439" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>32</v>
       </c>
@@ -35195,11 +33878,8 @@
       <c r="W439" t="s">
         <v>39</v>
       </c>
-      <c r="X439">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="440" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="440" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>23</v>
       </c>
@@ -35269,11 +33949,8 @@
       <c r="W440" t="s">
         <v>42</v>
       </c>
-      <c r="X440">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="441" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="441" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>114</v>
       </c>
@@ -35343,11 +34020,8 @@
       <c r="W441" t="s">
         <v>120</v>
       </c>
-      <c r="X441">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="442" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="442" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>23</v>
       </c>
@@ -35417,11 +34091,8 @@
       <c r="W442" t="s">
         <v>42</v>
       </c>
-      <c r="X442">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="443" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="443" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>23</v>
       </c>
@@ -35491,11 +34162,8 @@
       <c r="W443" t="s">
         <v>42</v>
       </c>
-      <c r="X443">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="444" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="444" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>23</v>
       </c>
@@ -35565,11 +34233,8 @@
       <c r="W444" t="s">
         <v>42</v>
       </c>
-      <c r="X444">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="445" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="445" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>23</v>
       </c>
@@ -35639,11 +34304,8 @@
       <c r="W445" t="s">
         <v>42</v>
       </c>
-      <c r="X445">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="446" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="446" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>23</v>
       </c>
@@ -35688,7 +34350,7 @@
       </c>
       <c r="O446">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="P446">
         <v>0</v>
@@ -35714,11 +34376,8 @@
       <c r="W446" t="s">
         <v>42</v>
       </c>
-      <c r="X446">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="447" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="447" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>23</v>
       </c>
@@ -35788,11 +34447,8 @@
       <c r="W447" t="s">
         <v>42</v>
       </c>
-      <c r="X447">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="448" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="448" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>103</v>
       </c>
@@ -35837,7 +34493,7 @@
       </c>
       <c r="O448">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="P448">
         <v>1</v>
@@ -35863,11 +34519,8 @@
       <c r="W448" t="s">
         <v>31</v>
       </c>
-      <c r="X448">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="449" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="449" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>23</v>
       </c>
@@ -35937,11 +34590,8 @@
       <c r="W449" t="s">
         <v>42</v>
       </c>
-      <c r="X449">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="450" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="450" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>23</v>
       </c>
@@ -36011,11 +34661,8 @@
       <c r="W450" t="s">
         <v>42</v>
       </c>
-      <c r="X450">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="451" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="451" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>23</v>
       </c>
@@ -36085,11 +34732,8 @@
       <c r="W451" t="s">
         <v>42</v>
       </c>
-      <c r="X451">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="452" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="452" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>23</v>
       </c>
@@ -36159,11 +34803,8 @@
       <c r="W452" t="s">
         <v>42</v>
       </c>
-      <c r="X452">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="453" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="453" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>23</v>
       </c>
@@ -36233,11 +34874,8 @@
       <c r="W453" t="s">
         <v>42</v>
       </c>
-      <c r="X453">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="454" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="454" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>23</v>
       </c>
@@ -36307,11 +34945,8 @@
       <c r="W454" t="s">
         <v>42</v>
       </c>
-      <c r="X454">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="455" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="455" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>23</v>
       </c>
@@ -36381,11 +35016,8 @@
       <c r="W455" t="s">
         <v>91</v>
       </c>
-      <c r="X455">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="456" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="456" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>103</v>
       </c>
@@ -36455,11 +35087,8 @@
       <c r="W456" t="s">
         <v>31</v>
       </c>
-      <c r="X456">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="457" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="457" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>23</v>
       </c>
@@ -36529,11 +35158,8 @@
       <c r="W457" t="s">
         <v>42</v>
       </c>
-      <c r="X457">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="458" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="458" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>23</v>
       </c>
@@ -36603,11 +35229,8 @@
       <c r="W458" t="s">
         <v>42</v>
       </c>
-      <c r="X458">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="459" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="459" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>23</v>
       </c>
@@ -36677,11 +35300,8 @@
       <c r="W459" t="s">
         <v>42</v>
       </c>
-      <c r="X459">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="460" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="460" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>23</v>
       </c>
@@ -36751,11 +35371,8 @@
       <c r="W460" t="s">
         <v>42</v>
       </c>
-      <c r="X460">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="461" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="461" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>23</v>
       </c>
@@ -36825,11 +35442,8 @@
       <c r="W461" t="s">
         <v>42</v>
       </c>
-      <c r="X461">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="462" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="462" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>23</v>
       </c>
@@ -36899,11 +35513,8 @@
       <c r="W462" t="s">
         <v>42</v>
       </c>
-      <c r="X462">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="463" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="463" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>23</v>
       </c>
@@ -36973,11 +35584,8 @@
       <c r="W463" t="s">
         <v>42</v>
       </c>
-      <c r="X463">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="464" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="464" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>23</v>
       </c>
@@ -37047,11 +35655,8 @@
       <c r="W464" t="s">
         <v>42</v>
       </c>
-      <c r="X464">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="465" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="465" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>23</v>
       </c>
@@ -37121,11 +35726,8 @@
       <c r="W465" t="s">
         <v>42</v>
       </c>
-      <c r="X465">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="466" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="466" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>23</v>
       </c>
@@ -37195,11 +35797,8 @@
       <c r="W466" t="s">
         <v>42</v>
       </c>
-      <c r="X466">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="467" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="467" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>23</v>
       </c>
@@ -37269,11 +35868,8 @@
       <c r="W467" t="s">
         <v>42</v>
       </c>
-      <c r="X467">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="468" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="468" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>23</v>
       </c>
@@ -37343,11 +35939,8 @@
       <c r="W468" t="s">
         <v>42</v>
       </c>
-      <c r="X468">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="469" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="469" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>23</v>
       </c>
@@ -37417,11 +36010,8 @@
       <c r="W469" t="s">
         <v>42</v>
       </c>
-      <c r="X469">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="470" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="470" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>23</v>
       </c>
@@ -37491,11 +36081,8 @@
       <c r="W470" t="s">
         <v>42</v>
       </c>
-      <c r="X470">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="471" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="471" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>23</v>
       </c>
@@ -37565,11 +36152,8 @@
       <c r="W471" t="s">
         <v>42</v>
       </c>
-      <c r="X471">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="472" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="472" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>23</v>
       </c>
@@ -37639,11 +36223,8 @@
       <c r="W472" t="s">
         <v>42</v>
       </c>
-      <c r="X472">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="473" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="473" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>23</v>
       </c>
@@ -37713,11 +36294,8 @@
       <c r="W473" t="s">
         <v>42</v>
       </c>
-      <c r="X473">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="474" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="474" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>23</v>
       </c>
@@ -37787,11 +36365,8 @@
       <c r="W474" t="s">
         <v>42</v>
       </c>
-      <c r="X474">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="475" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="475" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>23</v>
       </c>
@@ -37861,11 +36436,8 @@
       <c r="W475" t="s">
         <v>42</v>
       </c>
-      <c r="X475">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="476" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="476" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>23</v>
       </c>
@@ -37935,11 +36507,8 @@
       <c r="W476" t="s">
         <v>42</v>
       </c>
-      <c r="X476">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="477" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="477" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>23</v>
       </c>
@@ -38009,11 +36578,8 @@
       <c r="W477" t="s">
         <v>42</v>
       </c>
-      <c r="X477">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="478" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="478" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>103</v>
       </c>
@@ -38083,11 +36649,8 @@
       <c r="W478" t="s">
         <v>31</v>
       </c>
-      <c r="X478">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="479" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="479" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>23</v>
       </c>
@@ -38157,11 +36720,8 @@
       <c r="W479" t="s">
         <v>42</v>
       </c>
-      <c r="X479">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="480" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="480" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>23</v>
       </c>
@@ -38231,11 +36791,8 @@
       <c r="W480" t="s">
         <v>42</v>
       </c>
-      <c r="X480">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="481" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="481" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>114</v>
       </c>
@@ -38305,11 +36862,8 @@
       <c r="W481" t="s">
         <v>120</v>
       </c>
-      <c r="X481">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="482" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="482" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>114</v>
       </c>
@@ -38379,11 +36933,8 @@
       <c r="W482" t="s">
         <v>120</v>
       </c>
-      <c r="X482">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="483" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="483" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>114</v>
       </c>
@@ -38453,11 +37004,8 @@
       <c r="W483" t="s">
         <v>120</v>
       </c>
-      <c r="X483">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="484" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="484" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>23</v>
       </c>
@@ -38527,11 +37075,8 @@
       <c r="W484" t="s">
         <v>42</v>
       </c>
-      <c r="X484">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="485" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="485" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>23</v>
       </c>
@@ -38576,7 +37121,7 @@
       </c>
       <c r="O485">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="P485">
         <v>0</v>
@@ -38602,11 +37147,8 @@
       <c r="W485" t="s">
         <v>42</v>
       </c>
-      <c r="X485">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="486" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="486" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>86</v>
       </c>
@@ -38676,11 +37218,8 @@
       <c r="W486" t="s">
         <v>42</v>
       </c>
-      <c r="X486">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="487" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="487" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>86</v>
       </c>
@@ -38750,11 +37289,8 @@
       <c r="W487" t="s">
         <v>42</v>
       </c>
-      <c r="X487">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="488" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="488" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>114</v>
       </c>
@@ -38824,11 +37360,8 @@
       <c r="W488" t="s">
         <v>56</v>
       </c>
-      <c r="X488">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="489" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="489" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>23</v>
       </c>
@@ -38898,11 +37431,8 @@
       <c r="W489" t="s">
         <v>42</v>
       </c>
-      <c r="X489">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="490" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="490" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>114</v>
       </c>
@@ -38972,11 +37502,8 @@
       <c r="W490" t="s">
         <v>120</v>
       </c>
-      <c r="X490">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="491" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="491" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>114</v>
       </c>
@@ -39046,11 +37573,8 @@
       <c r="W491" t="s">
         <v>120</v>
       </c>
-      <c r="X491">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="492" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="492" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>23</v>
       </c>
@@ -39120,11 +37644,8 @@
       <c r="W492" t="s">
         <v>42</v>
       </c>
-      <c r="X492">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="493" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="493" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>23</v>
       </c>
@@ -39194,11 +37715,8 @@
       <c r="W493" t="s">
         <v>42</v>
       </c>
-      <c r="X493">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="494" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="494" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>23</v>
       </c>
@@ -39268,11 +37786,8 @@
       <c r="W494" t="s">
         <v>42</v>
       </c>
-      <c r="X494">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="495" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="495" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>23</v>
       </c>
@@ -39342,11 +37857,8 @@
       <c r="W495" t="s">
         <v>42</v>
       </c>
-      <c r="X495">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="496" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="496" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>86</v>
       </c>
@@ -39416,11 +37928,8 @@
       <c r="W496" t="s">
         <v>91</v>
       </c>
-      <c r="X496">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="497" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="497" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>23</v>
       </c>
@@ -39490,11 +37999,8 @@
       <c r="W497" t="s">
         <v>42</v>
       </c>
-      <c r="X497">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="498" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="498" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>23</v>
       </c>
@@ -39564,11 +38070,8 @@
       <c r="W498" t="s">
         <v>42</v>
       </c>
-      <c r="X498">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="499" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="499" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>23</v>
       </c>
@@ -39638,11 +38141,8 @@
       <c r="W499" t="s">
         <v>42</v>
       </c>
-      <c r="X499">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="500" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="500" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>114</v>
       </c>
@@ -39712,11 +38212,8 @@
       <c r="W500" t="s">
         <v>31</v>
       </c>
-      <c r="X500">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="501" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>103</v>
       </c>
@@ -39786,11 +38283,8 @@
       <c r="W501" t="s">
         <v>31</v>
       </c>
-      <c r="X501">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="502" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="502" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>103</v>
       </c>
@@ -39860,11 +38354,8 @@
       <c r="W502" t="s">
         <v>31</v>
       </c>
-      <c r="X502">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="503" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="503" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>23</v>
       </c>
@@ -39934,11 +38425,8 @@
       <c r="W503" t="s">
         <v>56</v>
       </c>
-      <c r="X503">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="504" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="504" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>23</v>
       </c>
@@ -40008,11 +38496,8 @@
       <c r="W504" t="s">
         <v>56</v>
       </c>
-      <c r="X504">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="505" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="505" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>23</v>
       </c>
@@ -40082,11 +38567,8 @@
       <c r="W505" t="s">
         <v>56</v>
       </c>
-      <c r="X505">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="506" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="506" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>23</v>
       </c>
@@ -40156,11 +38638,8 @@
       <c r="W506" t="s">
         <v>56</v>
       </c>
-      <c r="X506">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="507" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="507" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>86</v>
       </c>
@@ -40230,11 +38709,8 @@
       <c r="W507" t="s">
         <v>91</v>
       </c>
-      <c r="X507">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="508" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="508" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>23</v>
       </c>
@@ -40304,11 +38780,8 @@
       <c r="W508" t="s">
         <v>42</v>
       </c>
-      <c r="X508">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="509" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="509" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>23</v>
       </c>
@@ -40378,11 +38851,8 @@
       <c r="W509" t="s">
         <v>42</v>
       </c>
-      <c r="X509">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="510" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="510" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>103</v>
       </c>
@@ -40452,11 +38922,8 @@
       <c r="W510" t="s">
         <v>31</v>
       </c>
-      <c r="X510">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="511" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="511" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>103</v>
       </c>
@@ -40526,11 +38993,8 @@
       <c r="W511" t="s">
         <v>31</v>
       </c>
-      <c r="X511">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="512" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="512" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>103</v>
       </c>
@@ -40600,11 +39064,8 @@
       <c r="W512" t="s">
         <v>31</v>
       </c>
-      <c r="X512">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="513" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="513" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>23</v>
       </c>
@@ -40674,11 +39135,8 @@
       <c r="W513" t="s">
         <v>42</v>
       </c>
-      <c r="X513">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="514" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="514" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>23</v>
       </c>
@@ -40748,11 +39206,8 @@
       <c r="W514" t="s">
         <v>142</v>
       </c>
-      <c r="X514">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="515" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="515" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>23</v>
       </c>
@@ -40822,11 +39277,8 @@
       <c r="W515" t="s">
         <v>142</v>
       </c>
-      <c r="X515">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="516" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="516" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>86</v>
       </c>
@@ -40896,11 +39348,8 @@
       <c r="W516" t="s">
         <v>91</v>
       </c>
-      <c r="X516">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="517" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="517" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>86</v>
       </c>
@@ -40970,11 +39419,8 @@
       <c r="W517" t="s">
         <v>91</v>
       </c>
-      <c r="X517">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="518" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="518" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>23</v>
       </c>
@@ -41044,11 +39490,8 @@
       <c r="W518" t="s">
         <v>42</v>
       </c>
-      <c r="X518">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="519" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="519" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>114</v>
       </c>
@@ -41118,11 +39561,8 @@
       <c r="W519" t="s">
         <v>120</v>
       </c>
-      <c r="X519">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="520" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="520" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>23</v>
       </c>
@@ -41192,11 +39632,8 @@
       <c r="W520" t="s">
         <v>56</v>
       </c>
-      <c r="X520">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="521" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="521" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>23</v>
       </c>
@@ -41266,11 +39703,8 @@
       <c r="W521" t="s">
         <v>42</v>
       </c>
-      <c r="X521">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="522" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="522" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>103</v>
       </c>
@@ -41340,11 +39774,8 @@
       <c r="W522" t="s">
         <v>31</v>
       </c>
-      <c r="X522">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="523" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="523" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>114</v>
       </c>
@@ -41414,11 +39845,8 @@
       <c r="W523" t="s">
         <v>120</v>
       </c>
-      <c r="X523">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="524" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="524" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>103</v>
       </c>
@@ -41488,11 +39916,8 @@
       <c r="W524" t="s">
         <v>31</v>
       </c>
-      <c r="X524">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="525" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="525" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>103</v>
       </c>
@@ -41562,11 +39987,8 @@
       <c r="W525" t="s">
         <v>31</v>
       </c>
-      <c r="X525">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="526" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="526" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>23</v>
       </c>
@@ -41636,11 +40058,8 @@
       <c r="W526" t="s">
         <v>42</v>
       </c>
-      <c r="X526">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="527" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="527" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>114</v>
       </c>
@@ -41710,11 +40129,8 @@
       <c r="W527" t="s">
         <v>120</v>
       </c>
-      <c r="X527">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="528" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="528" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>23</v>
       </c>
@@ -41784,11 +40200,8 @@
       <c r="W528" t="s">
         <v>42</v>
       </c>
-      <c r="X528">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="529" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="529" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>114</v>
       </c>
@@ -41858,11 +40271,8 @@
       <c r="W529" t="s">
         <v>120</v>
       </c>
-      <c r="X529">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="530" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="530" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>23</v>
       </c>
@@ -41932,11 +40342,8 @@
       <c r="W530" t="s">
         <v>42</v>
       </c>
-      <c r="X530">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="531" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="531" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>23</v>
       </c>
@@ -42006,11 +40413,8 @@
       <c r="W531" t="s">
         <v>42</v>
       </c>
-      <c r="X531">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="532" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="532" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>23</v>
       </c>
@@ -42080,11 +40484,8 @@
       <c r="W532" t="s">
         <v>42</v>
       </c>
-      <c r="X532">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="533" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="533" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>23</v>
       </c>
@@ -42154,11 +40555,8 @@
       <c r="W533" t="s">
         <v>42</v>
       </c>
-      <c r="X533">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="534" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="534" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>23</v>
       </c>
@@ -42228,11 +40626,8 @@
       <c r="W534" t="s">
         <v>42</v>
       </c>
-      <c r="X534">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="535" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="535" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>86</v>
       </c>
@@ -42302,11 +40697,8 @@
       <c r="W535" t="s">
         <v>91</v>
       </c>
-      <c r="X535">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="536" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="536" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>86</v>
       </c>
@@ -42376,11 +40768,8 @@
       <c r="W536" t="s">
         <v>91</v>
       </c>
-      <c r="X536">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="537" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="537" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>23</v>
       </c>
@@ -42450,11 +40839,8 @@
       <c r="W537" t="s">
         <v>42</v>
       </c>
-      <c r="X537">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="538" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="538" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>23</v>
       </c>
@@ -42524,11 +40910,8 @@
       <c r="W538" t="s">
         <v>42</v>
       </c>
-      <c r="X538">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="539" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="539" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>23</v>
       </c>
@@ -42598,11 +40981,8 @@
       <c r="W539" t="s">
         <v>42</v>
       </c>
-      <c r="X539">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="540" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="540" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>23</v>
       </c>
@@ -42672,11 +41052,8 @@
       <c r="W540" t="s">
         <v>42</v>
       </c>
-      <c r="X540">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="541" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="541" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>23</v>
       </c>
@@ -42746,11 +41123,8 @@
       <c r="W541" t="s">
         <v>42</v>
       </c>
-      <c r="X541">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="542" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="542" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>23</v>
       </c>
@@ -42820,11 +41194,8 @@
       <c r="W542" t="s">
         <v>42</v>
       </c>
-      <c r="X542">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="543" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="543" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>23</v>
       </c>
@@ -42894,11 +41265,8 @@
       <c r="W543" t="s">
         <v>56</v>
       </c>
-      <c r="X543">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="544" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="544" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>23</v>
       </c>
@@ -42968,11 +41336,8 @@
       <c r="W544" t="s">
         <v>56</v>
       </c>
-      <c r="X544">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="545" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="545" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>23</v>
       </c>
@@ -43042,11 +41407,8 @@
       <c r="W545" t="s">
         <v>56</v>
       </c>
-      <c r="X545">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="546" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="546" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>23</v>
       </c>
@@ -43116,11 +41478,8 @@
       <c r="W546" t="s">
         <v>56</v>
       </c>
-      <c r="X546">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="547" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="547" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>23</v>
       </c>
@@ -43190,11 +41549,8 @@
       <c r="W547" t="s">
         <v>56</v>
       </c>
-      <c r="X547">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="548" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="548" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>23</v>
       </c>
@@ -43264,11 +41620,8 @@
       <c r="W548" t="s">
         <v>56</v>
       </c>
-      <c r="X548">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="549" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="549" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>23</v>
       </c>
@@ -43338,11 +41691,8 @@
       <c r="W549" t="s">
         <v>42</v>
       </c>
-      <c r="X549">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="550" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="550" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>23</v>
       </c>
@@ -43412,11 +41762,8 @@
       <c r="W550" t="s">
         <v>42</v>
       </c>
-      <c r="X550">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="551" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="551" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>23</v>
       </c>
@@ -43486,11 +41833,8 @@
       <c r="W551" t="s">
         <v>42</v>
       </c>
-      <c r="X551">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="552" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="552" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>103</v>
       </c>
@@ -43560,11 +41904,8 @@
       <c r="W552" t="s">
         <v>31</v>
       </c>
-      <c r="X552">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="553" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="553" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>23</v>
       </c>
@@ -43634,11 +41975,8 @@
       <c r="W553" t="s">
         <v>42</v>
       </c>
-      <c r="X553">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="554" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="554" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>23</v>
       </c>
@@ -43708,11 +42046,8 @@
       <c r="W554" t="s">
         <v>42</v>
       </c>
-      <c r="X554">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="555" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="555" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>23</v>
       </c>
@@ -43782,11 +42117,8 @@
       <c r="W555" t="s">
         <v>42</v>
       </c>
-      <c r="X555">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="556" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="556" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>23</v>
       </c>
@@ -43856,11 +42188,8 @@
       <c r="W556" t="s">
         <v>42</v>
       </c>
-      <c r="X556">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="557" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="557" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>86</v>
       </c>
@@ -43930,11 +42259,8 @@
       <c r="W557" t="s">
         <v>91</v>
       </c>
-      <c r="X557">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="558" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="558" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>23</v>
       </c>
@@ -44004,11 +42330,8 @@
       <c r="W558" t="s">
         <v>42</v>
       </c>
-      <c r="X558">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="559" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="559" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>23</v>
       </c>
@@ -44078,11 +42401,8 @@
       <c r="W559" t="s">
         <v>42</v>
       </c>
-      <c r="X559">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="560" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="560" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>32</v>
       </c>
@@ -44152,11 +42472,8 @@
       <c r="W560" t="s">
         <v>39</v>
       </c>
-      <c r="X560">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="561" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="561" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>114</v>
       </c>
@@ -44226,11 +42543,8 @@
       <c r="W561" t="s">
         <v>56</v>
       </c>
-      <c r="X561">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="562" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="562" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>23</v>
       </c>
@@ -44300,11 +42614,8 @@
       <c r="W562" t="s">
         <v>42</v>
       </c>
-      <c r="X562">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="563" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="563" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>114</v>
       </c>
@@ -44374,11 +42685,8 @@
       <c r="W563" t="s">
         <v>120</v>
       </c>
-      <c r="X563">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="564" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="564" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>86</v>
       </c>
@@ -44448,11 +42756,8 @@
       <c r="W564" t="s">
         <v>91</v>
       </c>
-      <c r="X564">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="565" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="565" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>32</v>
       </c>
@@ -44522,11 +42827,8 @@
       <c r="W565" t="s">
         <v>56</v>
       </c>
-      <c r="X565">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="566" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="566" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>32</v>
       </c>
@@ -44596,11 +42898,8 @@
       <c r="W566" t="s">
         <v>56</v>
       </c>
-      <c r="X566">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="567" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="567" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>114</v>
       </c>
@@ -44670,11 +42969,8 @@
       <c r="W567" t="s">
         <v>120</v>
       </c>
-      <c r="X567">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="568" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="568" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>23</v>
       </c>
@@ -44744,11 +43040,8 @@
       <c r="W568" t="s">
         <v>42</v>
       </c>
-      <c r="X568">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="569" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="569" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>23</v>
       </c>
@@ -44818,11 +43111,8 @@
       <c r="W569" t="s">
         <v>42</v>
       </c>
-      <c r="X569">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="570" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="570" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>23</v>
       </c>
@@ -44892,11 +43182,8 @@
       <c r="W570" t="s">
         <v>42</v>
       </c>
-      <c r="X570">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="571" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="571" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>23</v>
       </c>
@@ -44966,11 +43253,8 @@
       <c r="W571" t="s">
         <v>42</v>
       </c>
-      <c r="X571">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="572" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="572" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>23</v>
       </c>
@@ -45040,11 +43324,8 @@
       <c r="W572" t="s">
         <v>42</v>
       </c>
-      <c r="X572">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="573" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="573" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>23</v>
       </c>
@@ -45114,11 +43395,8 @@
       <c r="W573" t="s">
         <v>42</v>
       </c>
-      <c r="X573">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="574" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="574" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>23</v>
       </c>
@@ -45188,11 +43466,8 @@
       <c r="W574" t="s">
         <v>42</v>
       </c>
-      <c r="X574">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="575" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="575" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>23</v>
       </c>
@@ -45262,11 +43537,8 @@
       <c r="W575" t="s">
         <v>42</v>
       </c>
-      <c r="X575">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="576" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="576" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>23</v>
       </c>
@@ -45336,11 +43608,8 @@
       <c r="W576" t="s">
         <v>42</v>
       </c>
-      <c r="X576">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="577" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="577" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>23</v>
       </c>
@@ -45410,11 +43679,8 @@
       <c r="W577" t="s">
         <v>42</v>
       </c>
-      <c r="X577">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="578" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="578" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>23</v>
       </c>
@@ -45484,11 +43750,8 @@
       <c r="W578" t="s">
         <v>42</v>
       </c>
-      <c r="X578">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="579" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="579" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>86</v>
       </c>
@@ -45558,11 +43821,8 @@
       <c r="W579" t="s">
         <v>91</v>
       </c>
-      <c r="X579">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="580" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="580" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>23</v>
       </c>
@@ -45632,11 +43892,8 @@
       <c r="W580" t="s">
         <v>42</v>
       </c>
-      <c r="X580">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="581" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="581" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>86</v>
       </c>
@@ -45706,11 +43963,8 @@
       <c r="W581" t="s">
         <v>91</v>
       </c>
-      <c r="X581">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="582" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="582" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>86</v>
       </c>
@@ -45780,11 +44034,8 @@
       <c r="W582" t="s">
         <v>42</v>
       </c>
-      <c r="X582">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="583" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="583" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>86</v>
       </c>
@@ -45854,11 +44105,8 @@
       <c r="W583" t="s">
         <v>91</v>
       </c>
-      <c r="X583">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="584" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="584" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>86</v>
       </c>
@@ -45928,11 +44176,8 @@
       <c r="W584" t="s">
         <v>91</v>
       </c>
-      <c r="X584">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="585" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="585" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>86</v>
       </c>
@@ -46002,11 +44247,8 @@
       <c r="W585" t="s">
         <v>91</v>
       </c>
-      <c r="X585">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="586" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="586" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>86</v>
       </c>
@@ -46076,11 +44318,8 @@
       <c r="W586" t="s">
         <v>91</v>
       </c>
-      <c r="X586">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="587" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="587" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>86</v>
       </c>
@@ -46150,11 +44389,8 @@
       <c r="W587" t="s">
         <v>56</v>
       </c>
-      <c r="X587">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="588" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="588" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>86</v>
       </c>
@@ -46224,11 +44460,8 @@
       <c r="W588" t="s">
         <v>91</v>
       </c>
-      <c r="X588">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="589" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="589" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>86</v>
       </c>
@@ -46298,11 +44531,8 @@
       <c r="W589" t="s">
         <v>42</v>
       </c>
-      <c r="X589">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="590" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="590" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>86</v>
       </c>
@@ -46372,11 +44602,8 @@
       <c r="W590" t="s">
         <v>91</v>
       </c>
-      <c r="X590">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="591" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="591" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>86</v>
       </c>
@@ -46446,11 +44673,8 @@
       <c r="W591" t="s">
         <v>56</v>
       </c>
-      <c r="X591">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="592" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="592" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>114</v>
       </c>
@@ -46520,11 +44744,8 @@
       <c r="W592" t="s">
         <v>120</v>
       </c>
-      <c r="X592">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="593" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="593" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>114</v>
       </c>
@@ -46594,11 +44815,8 @@
       <c r="W593" t="s">
         <v>120</v>
       </c>
-      <c r="X593">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="594" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="594" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>23</v>
       </c>
@@ -46668,11 +44886,8 @@
       <c r="W594" t="s">
         <v>42</v>
       </c>
-      <c r="X594">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="595" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="595" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>23</v>
       </c>
@@ -46742,11 +44957,8 @@
       <c r="W595" t="s">
         <v>42</v>
       </c>
-      <c r="X595">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="596" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="596" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>23</v>
       </c>
@@ -46816,11 +45028,8 @@
       <c r="W596" t="s">
         <v>42</v>
       </c>
-      <c r="X596">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="597" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="597" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>23</v>
       </c>
@@ -46890,11 +45099,8 @@
       <c r="W597" t="s">
         <v>42</v>
       </c>
-      <c r="X597">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="598" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="598" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>23</v>
       </c>
@@ -46964,11 +45170,8 @@
       <c r="W598" t="s">
         <v>42</v>
       </c>
-      <c r="X598">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="599" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="599" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>23</v>
       </c>
@@ -47038,11 +45241,8 @@
       <c r="W599" t="s">
         <v>42</v>
       </c>
-      <c r="X599">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="600" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="600" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>23</v>
       </c>
@@ -47112,11 +45312,8 @@
       <c r="W600" t="s">
         <v>42</v>
       </c>
-      <c r="X600">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="601" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="601" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>23</v>
       </c>
@@ -47186,11 +45383,8 @@
       <c r="W601" t="s">
         <v>42</v>
       </c>
-      <c r="X601">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="602" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="602" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>103</v>
       </c>
@@ -47260,11 +45454,8 @@
       <c r="W602" t="s">
         <v>31</v>
       </c>
-      <c r="X602">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="603" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="603" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>23</v>
       </c>
@@ -47334,11 +45525,8 @@
       <c r="W603" t="s">
         <v>42</v>
       </c>
-      <c r="X603">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="604" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="604" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>23</v>
       </c>
@@ -47408,11 +45596,8 @@
       <c r="W604" t="s">
         <v>31</v>
       </c>
-      <c r="X604">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="605" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="605" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>23</v>
       </c>
@@ -47482,11 +45667,8 @@
       <c r="W605" t="s">
         <v>42</v>
       </c>
-      <c r="X605">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="606" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="606" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>23</v>
       </c>
@@ -47556,11 +45738,8 @@
       <c r="W606" t="s">
         <v>56</v>
       </c>
-      <c r="X606">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="607" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="607" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>23</v>
       </c>
@@ -47630,11 +45809,8 @@
       <c r="W607" t="s">
         <v>42</v>
       </c>
-      <c r="X607">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="608" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="608" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>23</v>
       </c>
@@ -47704,11 +45880,8 @@
       <c r="W608" t="s">
         <v>42</v>
       </c>
-      <c r="X608">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="609" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="609" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>23</v>
       </c>
@@ -47778,11 +45951,8 @@
       <c r="W609" t="s">
         <v>42</v>
       </c>
-      <c r="X609">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="610" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="610" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>103</v>
       </c>
@@ -47852,11 +46022,8 @@
       <c r="W610" t="s">
         <v>31</v>
       </c>
-      <c r="X610">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="611" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="611" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>103</v>
       </c>
@@ -47926,11 +46093,8 @@
       <c r="W611" t="s">
         <v>31</v>
       </c>
-      <c r="X611">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="612" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="612" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>23</v>
       </c>
@@ -48000,11 +46164,8 @@
       <c r="W612" t="s">
         <v>42</v>
       </c>
-      <c r="X612">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="613" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="613" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>23</v>
       </c>
@@ -48074,11 +46235,8 @@
       <c r="W613" t="s">
         <v>42</v>
       </c>
-      <c r="X613">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="614" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="614" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>23</v>
       </c>
@@ -48148,11 +46306,8 @@
       <c r="W614" t="s">
         <v>42</v>
       </c>
-      <c r="X614">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="615" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="615" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>23</v>
       </c>
@@ -48222,11 +46377,8 @@
       <c r="W615" t="s">
         <v>42</v>
       </c>
-      <c r="X615">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="616" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="616" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>23</v>
       </c>
@@ -48296,11 +46448,8 @@
       <c r="W616" t="s">
         <v>42</v>
       </c>
-      <c r="X616">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="617" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="617" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>23</v>
       </c>
@@ -48370,11 +46519,8 @@
       <c r="W617" t="s">
         <v>42</v>
       </c>
-      <c r="X617">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="618" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="618" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>114</v>
       </c>
@@ -48444,11 +46590,8 @@
       <c r="W618" t="s">
         <v>120</v>
       </c>
-      <c r="X618">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="619" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="619" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>114</v>
       </c>
@@ -48518,11 +46661,8 @@
       <c r="W619" t="s">
         <v>120</v>
       </c>
-      <c r="X619">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="620" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="620" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>23</v>
       </c>
@@ -48592,11 +46732,8 @@
       <c r="W620" t="s">
         <v>42</v>
       </c>
-      <c r="X620">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="621" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="621" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>23</v>
       </c>
@@ -48666,11 +46803,8 @@
       <c r="W621" t="s">
         <v>42</v>
       </c>
-      <c r="X621">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="622" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="622" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>23</v>
       </c>
@@ -48740,11 +46874,8 @@
       <c r="W622" t="s">
         <v>42</v>
       </c>
-      <c r="X622">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="623" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="623" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>23</v>
       </c>
@@ -48814,11 +46945,8 @@
       <c r="W623" t="s">
         <v>42</v>
       </c>
-      <c r="X623">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="624" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="624" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>23</v>
       </c>
@@ -48888,11 +47016,8 @@
       <c r="W624" t="s">
         <v>42</v>
       </c>
-      <c r="X624">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="625" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="625" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>23</v>
       </c>
@@ -48962,11 +47087,8 @@
       <c r="W625" t="s">
         <v>42</v>
       </c>
-      <c r="X625">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="626" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="626" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>23</v>
       </c>
@@ -49036,11 +47158,8 @@
       <c r="W626" t="s">
         <v>42</v>
       </c>
-      <c r="X626">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="627" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="627" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>103</v>
       </c>
@@ -49110,11 +47229,8 @@
       <c r="W627" t="s">
         <v>120</v>
       </c>
-      <c r="X627">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="628" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="628" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>23</v>
       </c>
@@ -49184,11 +47300,8 @@
       <c r="W628" t="s">
         <v>42</v>
       </c>
-      <c r="X628">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="629" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="629" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>23</v>
       </c>
@@ -49233,7 +47346,7 @@
       </c>
       <c r="O629">
         <f ca="1">RANDBETWEEN(6,52)</f>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="P629">
         <v>1</v>
@@ -49259,11 +47372,8 @@
       <c r="W629" t="s">
         <v>42</v>
       </c>
-      <c r="X629">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="630" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="630" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>114</v>
       </c>
@@ -49333,11 +47443,8 @@
       <c r="W630" t="s">
         <v>120</v>
       </c>
-      <c r="X630">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="631" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="631" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>23</v>
       </c>
@@ -49407,11 +47514,8 @@
       <c r="W631" t="s">
         <v>42</v>
       </c>
-      <c r="X631">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="632" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="632" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>23</v>
       </c>
@@ -49481,11 +47585,8 @@
       <c r="W632" t="s">
         <v>42</v>
       </c>
-      <c r="X632">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="633" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="633" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>23</v>
       </c>
@@ -49555,11 +47656,8 @@
       <c r="W633" t="s">
         <v>42</v>
       </c>
-      <c r="X633">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="634" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="634" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>23</v>
       </c>
@@ -49629,11 +47727,8 @@
       <c r="W634" t="s">
         <v>42</v>
       </c>
-      <c r="X634">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="635" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="635" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>86</v>
       </c>
@@ -49703,11 +47798,8 @@
       <c r="W635" t="s">
         <v>42</v>
       </c>
-      <c r="X635">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="636" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="636" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>23</v>
       </c>
@@ -49777,11 +47869,8 @@
       <c r="W636" t="s">
         <v>42</v>
       </c>
-      <c r="X636">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="637" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="637" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>23</v>
       </c>
@@ -49851,11 +47940,8 @@
       <c r="W637" t="s">
         <v>42</v>
       </c>
-      <c r="X637">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="638" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="638" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>23</v>
       </c>
@@ -49925,11 +48011,8 @@
       <c r="W638" t="s">
         <v>42</v>
       </c>
-      <c r="X638">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="639" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="639" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>23</v>
       </c>
@@ -49999,11 +48082,8 @@
       <c r="W639" t="s">
         <v>42</v>
       </c>
-      <c r="X639">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="640" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="640" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>23</v>
       </c>
@@ -50073,11 +48153,8 @@
       <c r="W640" t="s">
         <v>42</v>
       </c>
-      <c r="X640">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="641" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="641" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>23</v>
       </c>
@@ -50147,11 +48224,8 @@
       <c r="W641" t="s">
         <v>42</v>
       </c>
-      <c r="X641">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="642" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="642" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>23</v>
       </c>
@@ -50221,11 +48295,8 @@
       <c r="W642" t="s">
         <v>42</v>
       </c>
-      <c r="X642">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="643" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="643" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>114</v>
       </c>
@@ -50295,11 +48366,8 @@
       <c r="W643" t="s">
         <v>120</v>
       </c>
-      <c r="X643">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="644" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="644" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>23</v>
       </c>
@@ -50369,11 +48437,8 @@
       <c r="W644" t="s">
         <v>42</v>
       </c>
-      <c r="X644">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="645" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="645" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>103</v>
       </c>
@@ -50443,11 +48508,8 @@
       <c r="W645" t="s">
         <v>31</v>
       </c>
-      <c r="X645">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="646" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="646" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>103</v>
       </c>
@@ -50517,11 +48579,8 @@
       <c r="W646" t="s">
         <v>31</v>
       </c>
-      <c r="X646">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="647" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="647" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>23</v>
       </c>
@@ -50591,11 +48650,8 @@
       <c r="W647" t="s">
         <v>42</v>
       </c>
-      <c r="X647">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="648" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="648" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>23</v>
       </c>
@@ -50665,11 +48721,8 @@
       <c r="W648" t="s">
         <v>42</v>
       </c>
-      <c r="X648">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="649" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="649" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>23</v>
       </c>
@@ -50739,11 +48792,8 @@
       <c r="W649" t="s">
         <v>42</v>
       </c>
-      <c r="X649">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="650" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="650" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>23</v>
       </c>
@@ -50813,11 +48863,8 @@
       <c r="W650" t="s">
         <v>42</v>
       </c>
-      <c r="X650">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="651" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="651" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>23</v>
       </c>
@@ -50886,9 +48933,6 @@
       </c>
       <c r="W651" t="s">
         <v>42</v>
-      </c>
-      <c r="X651">
-        <v>2020</v>
       </c>
     </row>
   </sheetData>
